--- a/DSMC/감염병 CDM ETL정의서_계명대.xlsx
+++ b/DSMC/감염병 CDM ETL정의서_계명대.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programing\Infectious_CDM\DSMC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\jbcd\Infectious_CDM\DSMC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F3694E-AEA5-43FE-AEA6-31FB4BB966A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841275AC-A10A-41E2-B769-1746972902ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" tabRatio="855" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="855" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블정의" sheetId="17" r:id="rId1"/>
@@ -1741,10 +1741,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>약처방일 + 처방일수 + 1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>처방일수</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1895,10 +1891,6 @@
   </si>
   <si>
     <t>처방코드 매핑 정보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>원내 처방코드와 EDI OR KDC concept_id간의 매핑 정보</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3110,6 +3102,14 @@
   <si>
     <t>관찰 기관 데이터 출처 코드
 (e.g. 44814724, Period covering healthcare encounters)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원내 처방코드, 수가마스터와 EDI OR KDC concept_id간의 매핑 정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>약처방일 + 처방일수 - 1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4008,29 +4008,29 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="9.75" customWidth="1"/>
+    <col min="1" max="1" width="9.69921875" customWidth="1"/>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.75" customWidth="1"/>
+    <col min="3" max="3" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="49" t="s">
+        <v>446</v>
+      </c>
+      <c r="B1" s="49" t="s">
         <v>447</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="C1" s="50" t="s">
         <v>448</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="D1" s="50" t="s">
         <v>449</v>
-      </c>
-      <c r="D1" s="50" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4038,13 +4038,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="33" t="s">
+        <v>450</v>
+      </c>
+      <c r="C2" s="46" t="s">
         <v>451</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="D2" s="52" t="s">
         <v>452</v>
-      </c>
-      <c r="D2" s="52" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4052,10 +4052,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="C3" s="53" t="s">
         <v>454</v>
-      </c>
-      <c r="C3" s="53" t="s">
-        <v>455</v>
       </c>
       <c r="D3" s="33"/>
     </row>
@@ -4064,10 +4064,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="C4" s="53" t="s">
         <v>456</v>
-      </c>
-      <c r="C4" s="53" t="s">
-        <v>457</v>
       </c>
       <c r="D4" s="33"/>
     </row>
@@ -4076,13 +4076,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="33" t="s">
+        <v>457</v>
+      </c>
+      <c r="C5" s="53" t="s">
         <v>458</v>
       </c>
-      <c r="C5" s="53" t="s">
-        <v>459</v>
-      </c>
       <c r="D5" s="33" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4090,10 +4090,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="C6" s="53" t="s">
         <v>460</v>
-      </c>
-      <c r="C6" s="53" t="s">
-        <v>461</v>
       </c>
       <c r="D6" s="33"/>
     </row>
@@ -4102,13 +4102,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="33" t="s">
+        <v>461</v>
+      </c>
+      <c r="C7" s="53" t="s">
         <v>462</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="D7" s="33" t="s">
         <v>463</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4116,13 +4116,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="33" t="s">
+        <v>464</v>
+      </c>
+      <c r="C8" s="53" t="s">
         <v>465</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="D8" s="33" t="s">
         <v>466</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4130,10 +4130,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="33" t="s">
+        <v>467</v>
+      </c>
+      <c r="C9" s="53" t="s">
         <v>468</v>
-      </c>
-      <c r="C9" s="53" t="s">
-        <v>469</v>
       </c>
       <c r="D9" s="33"/>
     </row>
@@ -4142,13 +4142,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="33" t="s">
+        <v>469</v>
+      </c>
+      <c r="C10" s="53" t="s">
         <v>470</v>
       </c>
-      <c r="C10" s="53" t="s">
-        <v>471</v>
-      </c>
       <c r="D10" s="33" t="s">
-        <v>472</v>
+        <v>775</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4156,13 +4156,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4170,13 +4170,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>474</v>
+      </c>
+      <c r="D12" s="33" t="s">
         <v>475</v>
-      </c>
-      <c r="C12" s="53" t="s">
-        <v>476</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4184,27 +4184,27 @@
         <v>12</v>
       </c>
       <c r="B13" s="33" t="s">
+        <v>476</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>477</v>
+      </c>
+      <c r="D13" s="33" t="s">
         <v>478</v>
       </c>
-      <c r="C13" s="53" t="s">
-        <v>479</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="49.5">
+    </row>
+    <row r="14" spans="1:4" ht="52.2">
       <c r="A14" s="51">
         <v>13</v>
       </c>
       <c r="B14" s="33" t="s">
+        <v>479</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>480</v>
+      </c>
+      <c r="D14" s="54" t="s">
         <v>481</v>
-      </c>
-      <c r="C14" s="53" t="s">
-        <v>482</v>
-      </c>
-      <c r="D14" s="54" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4212,11 +4212,11 @@
         <v>14</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C15" s="33"/>
       <c r="D15" s="33" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4224,11 +4224,11 @@
         <v>15</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C16" s="33"/>
       <c r="D16" s="33" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -4248,18 +4248,18 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="29.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.875" customWidth="1"/>
+    <col min="1" max="1" width="29.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.8984375" customWidth="1"/>
     <col min="5" max="5" width="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.375" customWidth="1"/>
-    <col min="7" max="7" width="17.625" customWidth="1"/>
+    <col min="6" max="6" width="18.3984375" customWidth="1"/>
+    <col min="7" max="7" width="17.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24">
+    <row r="1" spans="1:7" ht="26.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4276,10 +4276,10 @@
         <v>91</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G1" s="43" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4301,7 +4301,7 @@
       <c r="F2" s="29"/>
       <c r="G2" s="29"/>
     </row>
-    <row r="3" spans="1:7" ht="27">
+    <row r="3" spans="1:7" ht="31.2">
       <c r="A3" s="17" t="s">
         <v>29</v>
       </c>
@@ -4326,26 +4326,26 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="7" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>109</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F4" s="56" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="27">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="46.8">
       <c r="A5" s="17" t="s">
         <v>43</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="28.5">
+    <row r="8" spans="1:7" ht="31.2">
       <c r="A8" s="17" t="s">
         <v>45</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>205</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F8" s="29" t="s">
         <v>428</v>
@@ -4431,7 +4431,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="28.5">
+    <row r="9" spans="1:7" ht="31.2">
       <c r="A9" s="17" t="s">
         <v>46</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>206</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F9" s="29" t="s">
         <v>428</v>
@@ -4452,7 +4452,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="27">
+    <row r="10" spans="1:7" ht="31.2">
       <c r="A10" s="17" t="s">
         <v>383</v>
       </c>
@@ -4471,28 +4471,28 @@
       <c r="F10" s="29"/>
       <c r="G10" s="31"/>
     </row>
-    <row r="11" spans="1:7" ht="27">
+    <row r="11" spans="1:7" ht="31.2">
       <c r="A11" s="11" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F11" s="56" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="27">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="31.2">
       <c r="A12" s="17" t="s">
         <v>48</v>
       </c>
@@ -4520,10 +4520,10 @@
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="11" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F13" s="29"/>
       <c r="G13" s="31"/>
@@ -4542,30 +4542,30 @@
         <v>204</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="31"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="11" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>108</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="F15" s="56" t="s">
+        <v>455</v>
+      </c>
+      <c r="G15" s="15" t="s">
         <v>558</v>
-      </c>
-      <c r="F15" s="56" t="s">
-        <v>456</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -4582,7 +4582,7 @@
         <v>207</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F16" s="29" t="s">
         <v>422</v>
@@ -4602,10 +4602,10 @@
         <v>114</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F17" s="29" t="s">
         <v>422</v>
@@ -4637,23 +4637,23 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="11" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="F19" s="56" t="s">
         <v>562</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="G19" s="15" t="s">
         <v>563</v>
-      </c>
-      <c r="F19" s="56" t="s">
-        <v>564</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -4667,7 +4667,7 @@
         <v>114</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>332</v>
@@ -4684,95 +4684,95 @@
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="11" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F21" s="29"/>
       <c r="G21" s="31"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="11" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>108</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F22" s="33"/>
       <c r="G22" s="33"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="11" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="F23" s="33"/>
       <c r="G23" s="33"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="11" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E24" s="61" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F24" s="33"/>
       <c r="G24" s="33"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="11" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E25" s="61" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F25" s="33"/>
       <c r="G25" s="33"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="11" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F26" s="33"/>
       <c r="G26" s="33"/>
@@ -4792,17 +4792,17 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="59.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.75" customWidth="1"/>
-    <col min="7" max="7" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.69921875" customWidth="1"/>
+    <col min="7" max="7" width="17.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33">
+    <row r="1" spans="1:7" ht="33.6">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4819,351 +4819,351 @@
         <v>91</v>
       </c>
       <c r="F1" s="63" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G1" s="63" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="33" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>108</v>
       </c>
       <c r="C2" s="33"/>
       <c r="D2" s="33" t="s">
+        <v>591</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>591</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>592</v>
+      </c>
+      <c r="G2" s="33" t="s">
         <v>593</v>
       </c>
-      <c r="E2" s="33" t="s">
-        <v>593</v>
-      </c>
-      <c r="F2" s="33" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="34.799999999999997">
+      <c r="A3" s="33" t="s">
         <v>594</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="B3" s="46" t="s">
         <v>595</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="33">
-      <c r="A3" s="33" t="s">
-        <v>596</v>
-      </c>
-      <c r="B3" s="46" t="s">
-        <v>597</v>
       </c>
       <c r="C3" s="33"/>
       <c r="D3" s="33" t="s">
+        <v>596</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>597</v>
+      </c>
+      <c r="F3" s="54" t="s">
         <v>598</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="G3" s="33" t="s">
         <v>599</v>
       </c>
-      <c r="F3" s="54" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="34.799999999999997">
+      <c r="A4" s="33" t="s">
         <v>600</v>
       </c>
-      <c r="G3" s="33" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="33">
-      <c r="A4" s="33" t="s">
-        <v>602</v>
-      </c>
       <c r="B4" s="46" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C4" s="33"/>
       <c r="D4" s="33" t="s">
+        <v>601</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>602</v>
+      </c>
+      <c r="F4" s="54" t="s">
+        <v>598</v>
+      </c>
+      <c r="G4" s="33" t="s">
         <v>603</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>604</v>
-      </c>
-      <c r="F4" s="54" t="s">
-        <v>600</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="33" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B5" s="46" t="s">
         <v>108</v>
       </c>
       <c r="C5" s="33"/>
       <c r="D5" s="33" t="s">
+        <v>605</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>605</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>606</v>
+      </c>
+      <c r="G5" s="33" t="s">
         <v>607</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>607</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>608</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="33" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C6" s="33"/>
       <c r="D6" s="33" t="s">
+        <v>609</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>609</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>610</v>
+      </c>
+      <c r="G6" s="33" t="s">
         <v>611</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>611</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>612</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="33" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C7" s="33"/>
       <c r="D7" s="33" t="s">
+        <v>609</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>609</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>606</v>
+      </c>
+      <c r="G7" s="33" t="s">
         <v>611</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>611</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>608</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="33" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B8" s="46" t="s">
         <v>260</v>
       </c>
       <c r="C8" s="33"/>
       <c r="D8" s="33" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="33" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B9" s="64" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C9" s="33"/>
       <c r="D9" s="33" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G9" s="33" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="33" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C10" s="33"/>
       <c r="D10" s="33" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="33" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C11" s="33"/>
       <c r="D11" s="33" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="33" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C12" s="33"/>
       <c r="D12" s="33" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="33" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C13" s="33"/>
       <c r="D13" s="33" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="33" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B14" s="46" t="s">
         <v>108</v>
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="33" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="33" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C15" s="33"/>
       <c r="D15" s="33" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="33" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C16" s="33"/>
       <c r="D16" s="33" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G16" s="33" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="33" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C17" s="33"/>
       <c r="D17" s="33" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="65" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B18" s="65"/>
       <c r="C18" s="65"/>
@@ -5182,22 +5182,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="28.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="67.25" customWidth="1"/>
-    <col min="5" max="5" width="29.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.25" customWidth="1"/>
-    <col min="7" max="7" width="15.75" customWidth="1"/>
+    <col min="1" max="1" width="28.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.19921875" customWidth="1"/>
+    <col min="5" max="5" width="29.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.19921875" customWidth="1"/>
+    <col min="7" max="7" width="15.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24">
+    <row r="1" spans="1:7" ht="26.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5214,13 +5214,13 @@
         <v>91</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G1" s="43" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="20" customFormat="1" ht="14.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="20" customFormat="1" ht="15.6">
       <c r="A2" s="16" t="s">
         <v>338</v>
       </c>
@@ -5239,7 +5239,7 @@
       <c r="F2" s="29"/>
       <c r="G2" s="29"/>
     </row>
-    <row r="3" spans="1:7" s="20" customFormat="1" ht="27">
+    <row r="3" spans="1:7" s="20" customFormat="1" ht="31.2">
       <c r="A3" s="17" t="s">
         <v>29</v>
       </c>
@@ -5262,26 +5262,26 @@
         <v>406</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="20" customFormat="1" ht="13.5">
+    <row r="4" spans="1:7" s="20" customFormat="1" ht="15.6">
       <c r="A4" s="7" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>108</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F4" s="56"/>
       <c r="G4" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="20" customFormat="1" ht="27">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="20" customFormat="1" ht="31.2">
       <c r="A5" s="17" t="s">
         <v>72</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>212</v>
       </c>
       <c r="E5" s="61" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="F5" s="29" t="s">
         <v>429</v>
@@ -5304,7 +5304,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="20" customFormat="1" ht="14.25">
+    <row r="6" spans="1:7" s="20" customFormat="1" ht="15.6">
       <c r="A6" s="17" t="s">
         <v>73</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="20" customFormat="1" ht="14.25">
+    <row r="7" spans="1:7" s="20" customFormat="1" ht="15.6">
       <c r="A7" s="17" t="s">
         <v>386</v>
       </c>
@@ -5346,7 +5346,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="20" customFormat="1" ht="14.25">
+    <row r="8" spans="1:7" s="20" customFormat="1" ht="15.6">
       <c r="A8" s="17" t="s">
         <v>74</v>
       </c>
@@ -5364,10 +5364,10 @@
         <v>429</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="20" customFormat="1" ht="14.25">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="20" customFormat="1" ht="15.6">
       <c r="A9" s="17" t="s">
         <v>75</v>
       </c>
@@ -5385,10 +5385,10 @@
         <v>429</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="20" customFormat="1" ht="14.25">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="20" customFormat="1" ht="15.6">
       <c r="A10" s="17" t="s">
         <v>76</v>
       </c>
@@ -5400,12 +5400,12 @@
         <v>218</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="F10" s="29"/>
       <c r="G10" s="31"/>
     </row>
-    <row r="11" spans="1:7" s="20" customFormat="1" ht="27">
+    <row r="11" spans="1:7" s="20" customFormat="1" ht="31.2">
       <c r="A11" s="17" t="s">
         <v>77</v>
       </c>
@@ -5419,33 +5419,33 @@
         <v>256</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="F11" s="29"/>
       <c r="G11" s="31"/>
     </row>
-    <row r="12" spans="1:7" s="20" customFormat="1" ht="27">
+    <row r="12" spans="1:7" s="20" customFormat="1" ht="31.2">
       <c r="A12" s="11" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F12" s="56" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="20" customFormat="1" ht="14.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="20" customFormat="1" ht="15.6">
       <c r="A13" s="17" t="s">
         <v>47</v>
       </c>
@@ -5457,12 +5457,12 @@
         <v>219</v>
       </c>
       <c r="E13" s="61" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F13" s="29"/>
       <c r="G13" s="31"/>
     </row>
-    <row r="14" spans="1:7" s="20" customFormat="1" ht="14.25">
+    <row r="14" spans="1:7" s="20" customFormat="1" ht="15.6">
       <c r="A14" s="17" t="s">
         <v>79</v>
       </c>
@@ -5474,12 +5474,12 @@
         <v>220</v>
       </c>
       <c r="E14" s="61" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="31"/>
     </row>
-    <row r="15" spans="1:7" s="20" customFormat="1" ht="28.5">
+    <row r="15" spans="1:7" s="20" customFormat="1" ht="30">
       <c r="A15" s="17" t="s">
         <v>387</v>
       </c>
@@ -5497,10 +5497,10 @@
         <v>429</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="20" customFormat="1" ht="14.25">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="20" customFormat="1" ht="15.6">
       <c r="A16" s="17" t="s">
         <v>388</v>
       </c>
@@ -5518,10 +5518,10 @@
         <v>429</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="20" customFormat="1" ht="14.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="20" customFormat="1" ht="15.6">
       <c r="A17" s="17" t="s">
         <v>80</v>
       </c>
@@ -5533,12 +5533,12 @@
         <v>223</v>
       </c>
       <c r="E17" s="61" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F17" s="29"/>
       <c r="G17" s="31"/>
     </row>
-    <row r="18" spans="1:7" s="20" customFormat="1" ht="27">
+    <row r="18" spans="1:7" s="20" customFormat="1" ht="31.2">
       <c r="A18" s="17" t="s">
         <v>81</v>
       </c>
@@ -5552,12 +5552,12 @@
         <v>224</v>
       </c>
       <c r="E18" s="42" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F18" s="29"/>
       <c r="G18" s="31"/>
     </row>
-    <row r="19" spans="1:7" s="20" customFormat="1" ht="14.25">
+    <row r="19" spans="1:7" s="20" customFormat="1" ht="15.6">
       <c r="A19" s="17" t="s">
         <v>83</v>
       </c>
@@ -5569,12 +5569,12 @@
         <v>225</v>
       </c>
       <c r="E19" s="61" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F19" s="29"/>
       <c r="G19" s="31"/>
     </row>
-    <row r="20" spans="1:7" s="20" customFormat="1" ht="14.25">
+    <row r="20" spans="1:7" s="20" customFormat="1" ht="15.6">
       <c r="A20" s="17" t="s">
         <v>4</v>
       </c>
@@ -5593,28 +5593,28 @@
       <c r="F20" s="29"/>
       <c r="G20" s="31"/>
     </row>
-    <row r="21" spans="1:7" s="20" customFormat="1" ht="13.5">
+    <row r="21" spans="1:7" s="20" customFormat="1" ht="15.6">
       <c r="A21" s="11" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>108</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E21" s="61" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F21" s="56" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="20" customFormat="1" ht="14.25">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="20" customFormat="1" ht="15.6">
       <c r="A22" s="17" t="s">
         <v>41</v>
       </c>
@@ -5637,7 +5637,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="20" customFormat="1" ht="14.25">
+    <row r="23" spans="1:7" s="20" customFormat="1" ht="15.6">
       <c r="A23" s="21" t="s">
         <v>94</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>229</v>
       </c>
       <c r="E23" s="61" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="F23" s="29" t="s">
         <v>429</v>
@@ -5660,7 +5660,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="20" customFormat="1" ht="14.25">
+    <row r="24" spans="1:7" s="20" customFormat="1" ht="15.6">
       <c r="A24" s="17" t="s">
         <v>78</v>
       </c>
@@ -5683,40 +5683,40 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="11" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E25" s="61" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="F25" s="56"/>
       <c r="G25" s="15"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>108</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E26" s="61" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="F26" s="56" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -5730,14 +5730,14 @@
         <v>114</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E27" s="61" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="F27" s="29"/>
       <c r="G27" s="31" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -5752,13 +5752,13 @@
         <v>230</v>
       </c>
       <c r="E28" s="61" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F28" s="29" t="s">
         <v>429</v>
       </c>
       <c r="G28" s="31" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -5779,7 +5779,7 @@
         <v>429</v>
       </c>
       <c r="G29" s="31" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -5789,273 +5789,273 @@
       <c r="B30" s="33"/>
       <c r="C30" s="33"/>
       <c r="D30" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="F30" s="33"/>
       <c r="G30" s="33" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="27">
+    <row r="31" spans="1:7" ht="31.2">
       <c r="A31" s="11" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>108</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E31" s="28" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F31" s="56"/>
       <c r="G31" s="33"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="11" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E32" s="28" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="F32" s="56"/>
       <c r="G32" s="33"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="11" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C33" s="46"/>
       <c r="D33" s="46" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E33" s="61" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F33" s="56"/>
       <c r="G33" s="33"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="11" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C34" s="46"/>
       <c r="D34" s="46" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E34" s="61" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F34" s="46" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G34" s="33"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="11" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C35" s="46"/>
       <c r="D35" s="46" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E35" s="61" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F35" s="56"/>
       <c r="G35" s="33"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="11" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>108</v>
       </c>
       <c r="C36" s="46"/>
       <c r="D36" s="46" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E36" s="61" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="F36" s="56"/>
       <c r="G36" s="33"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="11" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C37" s="46"/>
       <c r="D37" s="46" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E37" s="61" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F37" s="56"/>
       <c r="G37" s="33"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="11" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C38" s="46"/>
       <c r="D38" s="46" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E38" s="61" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F38" s="56"/>
       <c r="G38" s="33"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="11" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C39" s="46"/>
       <c r="D39" s="46" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E39" s="61" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F39" s="56"/>
       <c r="G39" s="33"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="11" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C40" s="46"/>
       <c r="D40" s="46" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E40" s="61" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="F40" s="56"/>
       <c r="G40" s="33"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="11" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C41" s="46"/>
       <c r="D41" s="46" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E41" s="61" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="F41" s="56"/>
       <c r="G41" s="33"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="11" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>260</v>
       </c>
       <c r="C42" s="46"/>
       <c r="D42" s="46" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E42" s="61" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F42" s="56"/>
       <c r="G42" s="33"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="11" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>108</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="11" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E43" s="61" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G43" s="33"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="11" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="11" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E44" s="61" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G44" s="33"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="11" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="11" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E45" s="61" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="F45" s="56"/>
       <c r="G45" s="33"/>
@@ -6072,21 +6072,21 @@
   <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="32.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="14.875" customWidth="1"/>
+    <col min="7" max="7" width="14.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24">
+    <row r="1" spans="1:10" ht="26.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6103,16 +6103,16 @@
         <v>91</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G1" s="43" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="J1" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="20" customFormat="1" ht="135">
+    <row r="2" spans="1:10" s="20" customFormat="1" ht="171.6">
       <c r="A2" s="17" t="s">
         <v>62</v>
       </c>
@@ -6151,7 +6151,7 @@
         <v>287</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G3" s="30" t="s">
         <v>406</v>
@@ -6159,23 +6159,23 @@
     </row>
     <row r="4" spans="1:10" s="20" customFormat="1" ht="54" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>108</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F4" s="56" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="20" customFormat="1" ht="67.5" customHeight="1">
@@ -6189,16 +6189,16 @@
         <v>114</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="F5" s="29" t="s">
+        <v>437</v>
+      </c>
+      <c r="G5" s="30" t="s">
         <v>438</v>
-      </c>
-      <c r="G5" s="30" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="20" customFormat="1" ht="67.5" customHeight="1">
@@ -6213,13 +6213,13 @@
         <v>235</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="20" customFormat="1" ht="54" customHeight="1">
@@ -6234,16 +6234,16 @@
         <v>236</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="20" customFormat="1" ht="27">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="20" customFormat="1" ht="31.2">
       <c r="A8" s="17" t="s">
         <v>96</v>
       </c>
@@ -6255,16 +6255,16 @@
         <v>237</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="20" customFormat="1" ht="27">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="20" customFormat="1" ht="31.2">
       <c r="A9" s="17" t="s">
         <v>53</v>
       </c>
@@ -6283,28 +6283,28 @@
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
     </row>
-    <row r="10" spans="1:10" s="20" customFormat="1" ht="27">
+    <row r="10" spans="1:10" s="20" customFormat="1" ht="31.2">
       <c r="A10" s="11" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>365</v>
       </c>
       <c r="F10" s="56" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="20" customFormat="1" ht="67.5">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="20" customFormat="1" ht="78">
       <c r="A11" s="17" t="s">
         <v>54</v>
       </c>
@@ -6315,36 +6315,36 @@
         <v>114</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="18"/>
     </row>
-    <row r="12" spans="1:10" s="20" customFormat="1" ht="13.5">
+    <row r="12" spans="1:10" s="20" customFormat="1" ht="15.6">
       <c r="A12" s="11" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="F12" s="56" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="20" customFormat="1" ht="14.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="20" customFormat="1" ht="15.6">
       <c r="A13" s="47" t="s">
         <v>55</v>
       </c>
@@ -6353,19 +6353,19 @@
       </c>
       <c r="C13" s="47"/>
       <c r="D13" s="11" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>348</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="20" customFormat="1" ht="40.5">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="20" customFormat="1" ht="46.8">
       <c r="A14" s="17" t="s">
         <v>56</v>
       </c>
@@ -6384,28 +6384,28 @@
       <c r="F14" s="34"/>
       <c r="G14" s="18"/>
     </row>
-    <row r="15" spans="1:10" s="20" customFormat="1" ht="13.5">
+    <row r="15" spans="1:10" s="20" customFormat="1" ht="15.6">
       <c r="A15" s="11" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="F15" s="56" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="20" customFormat="1" ht="27">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="20" customFormat="1" ht="31.2">
       <c r="A16" s="17" t="s">
         <v>233</v>
       </c>
@@ -6419,33 +6419,33 @@
         <v>239</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="F16" s="34"/>
       <c r="G16" s="18"/>
     </row>
-    <row r="17" spans="1:7" s="20" customFormat="1" ht="13.5">
+    <row r="17" spans="1:7" s="20" customFormat="1" ht="15.6">
       <c r="A17" s="11" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F17" s="56" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="20" customFormat="1" ht="14.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="20" customFormat="1" ht="15.6">
       <c r="A18" s="17" t="s">
         <v>57</v>
       </c>
@@ -6460,13 +6460,13 @@
         <v>349</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="20" customFormat="1" ht="14.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="20" customFormat="1" ht="15.6">
       <c r="A19" s="17" t="s">
         <v>58</v>
       </c>
@@ -6481,13 +6481,13 @@
         <v>350</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="20" customFormat="1" ht="13.5">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="20" customFormat="1" ht="15.6">
       <c r="A20" s="47" t="s">
         <v>4</v>
       </c>
@@ -6506,23 +6506,23 @@
       <c r="F20" s="34"/>
       <c r="G20" s="34"/>
     </row>
-    <row r="21" spans="1:7" s="20" customFormat="1" ht="13.5">
+    <row r="21" spans="1:7" s="20" customFormat="1" ht="15.6">
       <c r="A21" s="11" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>108</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="56" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -6536,13 +6536,13 @@
         <v>114</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>351</v>
       </c>
       <c r="F22" s="29" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G22" s="18" t="s">
         <v>424</v>
@@ -6559,13 +6559,13 @@
         <v>114</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="F23" s="29" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G23" s="18" t="s">
         <v>424</v>
@@ -6586,46 +6586,46 @@
         <v>352</v>
       </c>
       <c r="F24" s="29" t="s">
+        <v>437</v>
+      </c>
+      <c r="G24" s="30" t="s">
         <v>438</v>
-      </c>
-      <c r="G24" s="30" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="11" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -6664,10 +6664,10 @@
         <v>353</v>
       </c>
       <c r="F28" s="29" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -6685,10 +6685,10 @@
         <v>354</v>
       </c>
       <c r="F29" s="29" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G29" s="34" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -6698,7 +6698,7 @@
       <c r="B30" s="33"/>
       <c r="C30" s="33"/>
       <c r="D30" s="2" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="33"/>
@@ -6706,274 +6706,274 @@
         <v>390</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="27">
+    <row r="31" spans="1:7" ht="31.2">
       <c r="A31" s="11" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>108</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F31" s="33"/>
       <c r="G31" s="33"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="11" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="11" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="F32" s="33"/>
       <c r="G32" s="33"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="11" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="11" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F33" s="33"/>
       <c r="G33" s="33"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="11" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="F34" s="33"/>
       <c r="G34" s="33"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="11" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F35" s="33"/>
       <c r="G35" s="33"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="11" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F36" s="33"/>
       <c r="G36" s="33"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="11" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="F37" s="33"/>
       <c r="G37" s="33"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="11" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F38" s="33"/>
       <c r="G38" s="33"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="11" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="F39" s="33"/>
       <c r="G39" s="33"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="11" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F40" s="33"/>
       <c r="G40" s="33"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="11" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="F41" s="33"/>
       <c r="G41" s="33"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="11" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F42" s="33"/>
       <c r="G42" s="33"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="11" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>260</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F43" s="33"/>
       <c r="G43" s="33"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="11" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F44" s="33"/>
       <c r="G44" s="33"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="11" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F45" s="33"/>
       <c r="G45" s="33"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="11" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="F46" s="33"/>
       <c r="G46" s="33"/>
@@ -6993,18 +6993,18 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24">
+    <row r="1" spans="1:7" ht="26.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7021,13 +7021,13 @@
         <v>91</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G1" s="43" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="22" customFormat="1" ht="13.5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="22" customFormat="1" ht="15.6">
       <c r="A2" s="17" t="s">
         <v>63</v>
       </c>
@@ -7046,7 +7046,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" s="22" customFormat="1" ht="27">
+    <row r="3" spans="1:7" s="22" customFormat="1" ht="31.2">
       <c r="A3" s="17" t="s">
         <v>29</v>
       </c>
@@ -7063,34 +7063,34 @@
         <v>287</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="22" customFormat="1" ht="13.5">
+    <row r="4" spans="1:7" s="22" customFormat="1" ht="15.6">
       <c r="A4" s="7" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>108</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F4" s="56" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="22" customFormat="1" ht="27">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="22" customFormat="1" ht="31.2">
       <c r="A5" s="17" t="s">
         <v>64</v>
       </c>
@@ -7107,13 +7107,13 @@
         <v>346</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="22" customFormat="1" ht="27">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="22" customFormat="1" ht="31.2">
       <c r="A6" s="17" t="s">
         <v>65</v>
       </c>
@@ -7128,13 +7128,13 @@
         <v>355</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="22" customFormat="1" ht="27">
+    </row>
+    <row r="7" spans="1:7" s="22" customFormat="1" ht="31.2">
       <c r="A7" s="17" t="s">
         <v>66</v>
       </c>
@@ -7149,30 +7149,30 @@
         <v>356</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="22" customFormat="1" ht="27">
+    </row>
+    <row r="8" spans="1:7" s="22" customFormat="1" ht="31.2">
       <c r="A8" s="11" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>108</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" s="22" customFormat="1" ht="27">
+    <row r="9" spans="1:7" s="22" customFormat="1" ht="31.2">
       <c r="A9" s="17" t="s">
         <v>67</v>
       </c>
@@ -7191,7 +7191,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" s="22" customFormat="1" ht="27">
+    <row r="10" spans="1:7" s="22" customFormat="1" ht="31.2">
       <c r="A10" s="17" t="s">
         <v>68</v>
       </c>
@@ -7202,17 +7202,17 @@
         <v>114</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E10" s="68" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" s="22" customFormat="1" ht="13.5">
+    <row r="11" spans="1:7" s="22" customFormat="1" ht="15.6">
       <c r="A11" s="11" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -7220,16 +7220,16 @@
         <v>251</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="22" customFormat="1" ht="13.5">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="22" customFormat="1" ht="15.6">
       <c r="A12" s="17" t="s">
         <v>69</v>
       </c>
@@ -7241,12 +7241,12 @@
         <v>252</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" s="22" customFormat="1" ht="13.5">
+    <row r="13" spans="1:7" s="22" customFormat="1" ht="15.6">
       <c r="A13" s="17" t="s">
         <v>4</v>
       </c>
@@ -7265,26 +7265,26 @@
       <c r="F13" s="1"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" s="22" customFormat="1" ht="27">
+    <row r="14" spans="1:7" s="22" customFormat="1" ht="31.2">
       <c r="A14" s="11" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>108</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="56" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="22" customFormat="1" ht="27">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="22" customFormat="1" ht="31.2">
       <c r="A15" s="17" t="s">
         <v>41</v>
       </c>
@@ -7301,13 +7301,13 @@
         <v>357</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="27">
+    <row r="16" spans="1:7" ht="31.2">
       <c r="A16" s="17" t="s">
         <v>94</v>
       </c>
@@ -7321,16 +7321,16 @@
         <v>258</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="27">
+    <row r="17" spans="1:7" ht="31.2">
       <c r="A17" s="17" t="s">
         <v>70</v>
       </c>
@@ -7345,50 +7345,50 @@
         <v>358</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="11" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E18" s="11"/>
       <c r="F18" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>108</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -7402,17 +7402,17 @@
         <v>114</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>346</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="31.2">
       <c r="A21" s="17" t="s">
         <v>90</v>
       </c>
@@ -7424,7 +7424,7 @@
         <v>255</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -7436,318 +7436,318 @@
       <c r="B22" s="33"/>
       <c r="C22" s="33"/>
       <c r="D22" s="2" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F22" s="33"/>
       <c r="G22" s="33" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="27">
+    <row r="23" spans="1:7" ht="31.2">
       <c r="A23" s="11" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>108</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F23" s="33"/>
       <c r="G23" s="33"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="11" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="11" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="F24" s="33"/>
       <c r="G24" s="33"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="11" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="11" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F25" s="33"/>
       <c r="G25" s="33"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="11" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="F26" s="33"/>
       <c r="G26" s="33"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="11" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F27" s="33"/>
       <c r="G27" s="33"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="11" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F28" s="33"/>
       <c r="G28" s="33"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="11" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>108</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="F29" s="33"/>
       <c r="G29" s="33"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="11" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="F30" s="33"/>
       <c r="G30" s="33"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="11" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="11" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="F31" s="33"/>
       <c r="G31" s="33"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="11" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F32" s="33"/>
       <c r="G32" s="33"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="11" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="F33" s="33"/>
       <c r="G33" s="33"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="11" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F34" s="33"/>
       <c r="G34" s="33"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="11" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="F35" s="33"/>
       <c r="G35" s="33"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="11" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F36" s="33"/>
       <c r="G36" s="33"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="11" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>260</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F37" s="33"/>
       <c r="G37" s="33"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="11" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="11" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="F38" s="33"/>
       <c r="G38" s="33"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="11" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="11" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="F39" s="33"/>
       <c r="G39" s="33"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="11" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>108</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="11" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F40" s="33"/>
       <c r="G40" s="33"/>
@@ -7763,22 +7763,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43E0522-B6D2-4FA4-BDEF-13A8476A43FE}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="24.25" customWidth="1"/>
-    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.625" customWidth="1"/>
-    <col min="5" max="5" width="30.875" customWidth="1"/>
-    <col min="6" max="6" width="28.625" customWidth="1"/>
-    <col min="7" max="7" width="13.125" customWidth="1"/>
+    <col min="1" max="1" width="24.19921875" customWidth="1"/>
+    <col min="2" max="2" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.59765625" customWidth="1"/>
+    <col min="5" max="5" width="30.8984375" customWidth="1"/>
+    <col min="6" max="6" width="28.59765625" customWidth="1"/>
+    <col min="7" max="7" width="13.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33">
+    <row r="1" spans="1:7" ht="33.6">
       <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
@@ -7795,15 +7795,15 @@
         <v>91</v>
       </c>
       <c r="F1" s="63" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G1" s="63" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="31.2">
       <c r="A2" s="56" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B2" s="56" t="s">
         <v>106</v>
@@ -7812,10 +7812,10 @@
         <v>113</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -7831,73 +7831,73 @@
         <v>114</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F3" s="56" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="81">
+    <row r="4" spans="1:7" ht="93.6">
       <c r="A4" s="56" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B4" s="56" t="s">
         <v>122</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="F4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="93.6">
+      <c r="A5" s="56" t="s">
         <v>770</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="81">
-      <c r="A5" s="56" t="s">
-        <v>772</v>
       </c>
       <c r="B5" s="56" t="s">
         <v>122</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="46.8">
+      <c r="A6" s="56" t="s">
         <v>773</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>773</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="40.5">
-      <c r="A6" s="56" t="s">
-        <v>775</v>
       </c>
       <c r="B6" s="56" t="s">
         <v>106</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="1" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -7916,16 +7916,16 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="26.75" customWidth="1"/>
+    <col min="5" max="5" width="26.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25">
+    <row r="1" spans="1:5" ht="19.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7959,7 +7959,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="27">
+    <row r="3" spans="1:5" ht="31.2">
       <c r="A3" s="11" t="s">
         <v>10</v>
       </c>
@@ -7989,7 +7989,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="27">
+    <row r="5" spans="1:5" ht="31.2">
       <c r="A5" s="11" t="s">
         <v>12</v>
       </c>
@@ -8108,18 +8108,18 @@
       <selection activeCell="F1" sqref="F1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.09765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24">
+    <row r="1" spans="1:7" ht="26.4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -8136,10 +8136,10 @@
         <v>91</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G1" s="43" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -8182,7 +8182,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="27">
+    <row r="4" spans="1:7" ht="31.2">
       <c r="A4" s="11" t="s">
         <v>19</v>
       </c>
@@ -8201,7 +8201,7 @@
       <c r="F4" s="44"/>
       <c r="G4" s="45"/>
     </row>
-    <row r="5" spans="1:7" ht="67.5">
+    <row r="5" spans="1:7" ht="78">
       <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
@@ -8280,18 +8280,18 @@
       <selection activeCell="F1" sqref="F1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="30.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.8984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.25" customWidth="1"/>
-    <col min="7" max="7" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="13.19921875" customWidth="1"/>
+    <col min="7" max="7" width="12.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24">
+    <row r="1" spans="1:7" ht="26.4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -8308,10 +8308,10 @@
         <v>91</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G1" s="43" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -8384,7 +8384,7 @@
       <c r="F5" s="44"/>
       <c r="G5" s="45"/>
     </row>
-    <row r="6" spans="1:7" ht="40.5">
+    <row r="6" spans="1:7" ht="46.8">
       <c r="A6" s="11" t="s">
         <v>86</v>
       </c>
@@ -8401,34 +8401,34 @@
         <v>361</v>
       </c>
       <c r="F6" s="56" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="27">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="31.2">
       <c r="A7" s="11" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F7" s="56" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="27">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="31.2">
       <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
@@ -8453,17 +8453,17 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="11" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>108</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F9" s="56"/>
       <c r="G9" s="15"/>
@@ -8552,17 +8552,17 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="11" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>108</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F14" s="56"/>
       <c r="G14" s="15"/>
@@ -8641,18 +8641,18 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="25.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24">
+    <row r="1" spans="1:7" ht="26.4">
       <c r="A1" s="8" t="s">
         <v>111</v>
       </c>
@@ -8669,13 +8669,13 @@
         <v>91</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G1" s="43" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="31.2">
       <c r="A2" s="7" t="s">
         <v>259</v>
       </c>
@@ -8698,7 +8698,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="27">
+    <row r="3" spans="1:7" ht="31.2">
       <c r="A3" s="7" t="s">
         <v>261</v>
       </c>
@@ -8709,7 +8709,7 @@
         <v>114</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>279</v>
@@ -8721,7 +8721,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="27">
+    <row r="4" spans="1:7" ht="31.2">
       <c r="A4" s="7" t="s">
         <v>262</v>
       </c>
@@ -8784,7 +8784,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="27">
+    <row r="7" spans="1:7" ht="31.2">
       <c r="A7" s="7" t="s">
         <v>267</v>
       </c>
@@ -8805,7 +8805,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="27">
+    <row r="8" spans="1:7" ht="31.2">
       <c r="A8" s="7" t="s">
         <v>371</v>
       </c>
@@ -8817,7 +8817,7 @@
         <v>372</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F8" s="44" t="s">
         <v>403</v>
@@ -8826,7 +8826,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="27">
+    <row r="9" spans="1:7" ht="31.2">
       <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
@@ -8838,7 +8838,7 @@
         <v>110</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F9" s="44" t="s">
         <v>405</v>
@@ -8847,7 +8847,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="40.5">
+    <row r="10" spans="1:7" ht="46.8">
       <c r="A10" s="7" t="s">
         <v>269</v>
       </c>
@@ -8861,12 +8861,12 @@
         <v>118</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F10" s="44"/>
       <c r="G10" s="45"/>
     </row>
-    <row r="11" spans="1:7" ht="81">
+    <row r="11" spans="1:7" ht="93.6">
       <c r="A11" s="7" t="s">
         <v>270</v>
       </c>
@@ -8877,10 +8877,10 @@
         <v>114</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F11" s="44" t="s">
         <v>405</v>
@@ -8900,15 +8900,15 @@
         <v>114</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F12" s="44"/>
       <c r="G12" s="45"/>
     </row>
-    <row r="13" spans="1:7" ht="27">
+    <row r="13" spans="1:7" ht="31.2">
       <c r="A13" s="7" t="s">
         <v>272</v>
       </c>
@@ -8922,7 +8922,7 @@
         <v>119</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F13" s="44"/>
       <c r="G13" s="45"/>
@@ -8936,7 +8936,7 @@
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>285</v>
@@ -8950,17 +8950,17 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="7" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>109</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F15" s="56"/>
       <c r="G15" s="15"/>
@@ -8974,7 +8974,7 @@
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>286</v>
@@ -8997,7 +8997,7 @@
         <v>114</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>284</v>
@@ -9014,10 +9014,10 @@
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F18" s="44" t="s">
         <v>405</v>
@@ -9037,10 +9037,10 @@
         <v>114</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F19" s="44"/>
       <c r="G19" s="45"/>
@@ -9054,10 +9054,10 @@
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F20" s="44"/>
       <c r="G20" s="45"/>
@@ -9073,44 +9073,44 @@
         <v>114</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F21" s="44"/>
       <c r="G21" s="45"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="7" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F22" s="33"/>
       <c r="G22" s="33"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="7" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F23" s="33"/>
       <c r="G23" s="33"/>
@@ -9130,16 +9130,16 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.875" customWidth="1"/>
-    <col min="5" max="5" width="43.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.8984375" customWidth="1"/>
+    <col min="5" max="5" width="43.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25">
+    <row r="1" spans="1:5" ht="19.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -9156,7 +9156,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="27">
+    <row r="2" spans="1:5" ht="31.2">
       <c r="A2" s="11" t="s">
         <v>104</v>
       </c>
@@ -9203,7 +9203,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="54">
+    <row r="5" spans="1:5" ht="62.4">
       <c r="A5" s="2" t="s">
         <v>102</v>
       </c>
@@ -9284,18 +9284,18 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="28.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="61.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.125" customWidth="1"/>
-    <col min="7" max="7" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.09765625" customWidth="1"/>
+    <col min="7" max="7" width="15.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24">
+    <row r="1" spans="1:7" ht="26.4">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -9312,10 +9312,10 @@
         <v>91</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G1" s="43" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -9362,22 +9362,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="7" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>108</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F4" s="56"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="40.5">
+    <row r="5" spans="1:7" ht="46.8">
       <c r="A5" s="40" t="s">
         <v>39</v>
       </c>
@@ -9400,7 +9400,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="40.5">
+    <row r="6" spans="1:7" ht="46.8">
       <c r="A6" s="40" t="s">
         <v>30</v>
       </c>
@@ -9421,7 +9421,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="40.5">
+    <row r="7" spans="1:7" ht="46.8">
       <c r="A7" s="40" t="s">
         <v>31</v>
       </c>
@@ -9442,7 +9442,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="40.5">
+    <row r="8" spans="1:7" ht="46.8">
       <c r="A8" s="40" t="s">
         <v>32</v>
       </c>
@@ -9484,7 +9484,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="27">
+    <row r="10" spans="1:7" ht="31.2">
       <c r="A10" s="40" t="s">
         <v>34</v>
       </c>
@@ -9505,26 +9505,26 @@
     </row>
     <row r="11" spans="1:7" ht="28.5" customHeight="1">
       <c r="A11" s="59" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C11" s="59"/>
       <c r="D11" s="59" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E11" s="57" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F11" s="56" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="40.5">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="46.8">
       <c r="A12" s="40" t="s">
         <v>4</v>
       </c>
@@ -9543,7 +9543,7 @@
       <c r="F12" s="29"/>
       <c r="G12" s="31"/>
     </row>
-    <row r="13" spans="1:7" ht="27">
+    <row r="13" spans="1:7" ht="31.2">
       <c r="A13" s="39" t="s">
         <v>5</v>
       </c>
@@ -9562,7 +9562,7 @@
       <c r="F13" s="29"/>
       <c r="G13" s="31"/>
     </row>
-    <row r="14" spans="1:7" ht="40.5">
+    <row r="14" spans="1:7" ht="46.8">
       <c r="A14" s="39" t="s">
         <v>36</v>
       </c>
@@ -9583,7 +9583,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="40.5">
+    <row r="15" spans="1:7" ht="46.8">
       <c r="A15" s="39" t="s">
         <v>37</v>
       </c>
@@ -9606,7 +9606,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="67.5">
+    <row r="16" spans="1:7" ht="78">
       <c r="A16" s="39" t="s">
         <v>93</v>
       </c>
@@ -9617,7 +9617,7 @@
         <v>114</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E16" s="28" t="s">
         <v>362</v>
@@ -9634,7 +9634,7 @@
       </c>
       <c r="C17" s="40"/>
       <c r="D17" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E17" s="60"/>
       <c r="F17" s="29" t="s">
@@ -9672,7 +9672,7 @@
       </c>
       <c r="C19" s="39"/>
       <c r="D19" s="15" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E19" s="60"/>
       <c r="F19" s="29" t="s">
@@ -9705,17 +9705,17 @@
     </row>
     <row r="21" spans="1:7" ht="29.25" customHeight="1">
       <c r="A21" s="11" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="15" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F21" s="58" t="s">
         <v>412</v>
@@ -9726,34 +9726,34 @@
     </row>
     <row r="22" spans="1:7" ht="29.25" customHeight="1">
       <c r="A22" s="11" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F22" s="33"/>
       <c r="G22" s="33"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="11" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F23" s="33"/>
       <c r="G23" s="33"/>
@@ -9773,18 +9773,18 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="28.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.75" customWidth="1"/>
-    <col min="7" max="7" width="15.125" customWidth="1"/>
+    <col min="1" max="1" width="28.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.69921875" customWidth="1"/>
+    <col min="7" max="7" width="15.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24">
+    <row r="1" spans="1:7" ht="26.4">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -9801,13 +9801,13 @@
         <v>91</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G1" s="43" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="20" customFormat="1" ht="14.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="20" customFormat="1" ht="15.6">
       <c r="A2" s="18" t="s">
         <v>322</v>
       </c>
@@ -9826,7 +9826,7 @@
       <c r="F2" s="29"/>
       <c r="G2" s="29"/>
     </row>
-    <row r="3" spans="1:7" ht="27">
+    <row r="3" spans="1:7" ht="31.2">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -9851,26 +9851,26 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="7" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>108</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F4" s="56" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="27">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="31.2">
       <c r="A5" s="2" t="s">
         <v>185</v>
       </c>
@@ -9987,30 +9987,30 @@
         <v>256</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F10" s="29"/>
       <c r="G10" s="31"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="31.2">
       <c r="A11" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F11" s="56" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -10032,7 +10032,7 @@
       <c r="F12" s="29"/>
       <c r="G12" s="31"/>
     </row>
-    <row r="13" spans="1:7" ht="27">
+    <row r="13" spans="1:7" ht="31.2">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -10090,7 +10090,7 @@
         <v>176</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F15" s="29"/>
       <c r="G15" s="31"/>
@@ -10106,10 +10106,10 @@
         <v>114</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F16" s="29"/>
       <c r="G16" s="31"/>
@@ -10126,7 +10126,7 @@
         <v>178</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F17" s="29"/>
       <c r="G17" s="31"/>
@@ -10143,7 +10143,7 @@
         <v>179</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F18" s="29"/>
       <c r="G18" s="31"/>
@@ -10159,10 +10159,10 @@
         <v>114</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F19" s="29"/>
       <c r="G19" s="31"/>
@@ -10198,7 +10198,7 @@
         <v>195</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F21" s="29"/>
       <c r="G21" s="31"/>
@@ -10224,17 +10224,17 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="11" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F23" s="29" t="s">
         <v>418</v>
@@ -10245,51 +10245,51 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="11" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F24" s="33"/>
       <c r="G24" s="33"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F25" s="33"/>
       <c r="G25" s="33"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F26" s="33"/>
       <c r="G26" s="33"/>
@@ -10309,18 +10309,18 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="65.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.75" customWidth="1"/>
-    <col min="7" max="7" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.75" customWidth="1"/>
+    <col min="1" max="1" width="28.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.69921875" customWidth="1"/>
+    <col min="7" max="7" width="17.09765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="33.6">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -10337,422 +10337,422 @@
         <v>91</v>
       </c>
       <c r="F1" s="63" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G1" s="63" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="H1" s="66" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="33" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>108</v>
       </c>
       <c r="C2" s="33"/>
       <c r="D2" s="33" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="H2" s="33"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="33" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B3" s="46" t="s">
         <v>108</v>
       </c>
       <c r="C3" s="33"/>
       <c r="D3" s="33" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="H3" s="33"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="33" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C4" s="33"/>
       <c r="D4" s="33" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="H4" s="33"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="33" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C5" s="33"/>
       <c r="D5" s="33" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="H5" s="33"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="65" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B6" s="67" t="s">
         <v>108</v>
       </c>
       <c r="C6" s="65"/>
       <c r="D6" s="65" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E6" s="65" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="F6" s="65" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G6" s="65" t="s">
+        <v>649</v>
+      </c>
+      <c r="H6" s="65" t="s">
         <v>651</v>
-      </c>
-      <c r="H6" s="65" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="65" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B7" s="67" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C7" s="65"/>
       <c r="D7" s="65" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E7" s="65" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F7" s="65" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G7" s="65" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="H7" s="65" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="65" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B8" s="67" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C8" s="65"/>
       <c r="D8" s="65" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E8" s="65" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F8" s="65" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G8" s="65" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="H8" s="65" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="65" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B9" s="67" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C9" s="65"/>
       <c r="D9" s="65" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E9" s="65" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F9" s="65" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G9" s="65" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H9" s="65" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="33" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B10" s="46" t="s">
         <v>260</v>
       </c>
       <c r="C10" s="33"/>
       <c r="D10" s="33" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="H10" s="33"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="33" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B11" s="64" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C11" s="33"/>
       <c r="D11" s="33" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H11" s="33"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="33" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C12" s="33"/>
       <c r="D12" s="33" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="H12" s="33"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="33" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C13" s="33"/>
       <c r="D13" s="33" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="H13" s="33"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="33" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="33" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H14" s="33"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="33" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C15" s="33"/>
       <c r="D15" s="33" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="H15" s="33"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="33" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B16" s="46" t="s">
         <v>108</v>
       </c>
       <c r="C16" s="33"/>
       <c r="D16" s="33" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G16" s="33" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="H16" s="33"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="33" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C17" s="33"/>
       <c r="D17" s="33" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="H17" s="33"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="33" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C18" s="33"/>
       <c r="D18" s="33" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E18" s="33" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F18" s="33" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G18" s="33" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="H18" s="33"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="33" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C19" s="33"/>
       <c r="D19" s="33" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H19" s="33"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="65" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B20" s="65"/>
       <c r="C20" s="65"/>

--- a/DSMC/감염병 CDM ETL정의서_계명대.xlsx
+++ b/DSMC/감염병 CDM ETL정의서_계명대.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\jbcd\Infectious_CDM\DSMC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programing\Infectious_CDM\DSMC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841275AC-A10A-41E2-B769-1746972902ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72F0C09-D294-4FE4-89DC-8C31F15AB28A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="855" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" tabRatio="855" firstSheet="4" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블정의" sheetId="17" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1809" uniqueCount="787">
   <si>
     <t>필드명</t>
   </si>
@@ -1581,15 +1581,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>필요정보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 검사 코드 마스터
-2. 검사결과 테이블과 검사처방과 같은 테이블이 엮여 있을거 같은데… 정보 필요함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>care_site</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1786,11 +1777,6 @@
   </si>
   <si>
     <t>procedure_occurrence</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시술/처치일
-처방일</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2242,9 +2228,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>PROVIDER_NAME</t>
-  </si>
-  <si>
     <t>진단명</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2257,17 +2240,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DW_MMPDIAGT</t>
-  </si>
-  <si>
-    <t>DIAGNAME</t>
-  </si>
-  <si>
     <t>visit_occurrence테이블과 연결시키기 위한 key값</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>patno+medtime+patfg+meddept를 foreign key로 이용</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2371,21 +2344,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ORDCODE</t>
-  </si>
-  <si>
     <t>원내 처방코드</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ODS_MMORDRCT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ORDCODE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>FROMDATE</t>
   </si>
   <si>
@@ -2401,15 +2363,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ODS_AIPRICST
-ODS_MMORDRCT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FROMDATE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>TODATE</t>
   </si>
   <si>
@@ -2421,41 +2374,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TODATE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>INSEDICODE</t>
-  </si>
-  <si>
     <t>보험 EDI 코드</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ODS_AIPRICST</t>
-  </si>
-  <si>
-    <t>INSEDICODE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ORDNAME_x</t>
-  </si>
-  <si>
     <t>처방명</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ODS_MMORDRCT</t>
-  </si>
-  <si>
-    <t>ORDNAME</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ORDNAME_y</t>
-  </si>
-  <si>
     <t>concept_id</t>
   </si>
   <si>
@@ -2557,10 +2483,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ODS_SIDIAGCT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CHANGED_DIAGCODE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2661,9 +2583,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ORDNAME</t>
-  </si>
-  <si>
     <t>drug_source_value에 대한 EDI코드</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2760,14 +2679,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>dcyn</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>D/C처방유무</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>EDI 코드 입력</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2799,10 +2710,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>EDICODE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>measurement_type_concept_id_name</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2931,10 +2838,6 @@
   </si>
   <si>
     <t>원천 검사명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DW_STEXMRST</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3112,12 +3015,152 @@
     <t>약처방일 + 처방일수 - 1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>병원구분코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>환자번호 + ';' + 수진번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>drug_exposure</t>
+  </si>
+  <si>
+    <t>measurement</t>
+  </si>
+  <si>
+    <t>procedure_occurrence</t>
+  </si>
+  <si>
+    <t>visit_detail_source_key</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit_detail과 매핑키</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>care_site_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>확정상병여부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주상병여부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit_occurrence_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진단코드마스터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진단코드 사용 시작일시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진단코드 사용 종료일시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진단코드명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계명대병원_처방코드마스터</t>
+  </si>
+  <si>
+    <t>적용시작일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>적용종료일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EDI 코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>처방그룹명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>처방분류명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>의료제공자 ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>처방순번</t>
+  </si>
+  <si>
+    <t>약품명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>concept_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>처방량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>처방횟수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATC코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATC코드명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>concept_etc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>concept_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>concept_unit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>local_edi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>처방일시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시술/처치일
+수술일
+처방일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수술일시</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="34">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3380,6 +3423,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="KoPubWorld돋움체_Pro Light"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -3493,7 +3543,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3596,9 +3646,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3616,9 +3663,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
@@ -3703,6 +3747,30 @@
     </xf>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4011,224 +4079,224 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.69921875" customWidth="1"/>
+    <col min="1" max="1" width="9.75" customWidth="1"/>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.69921875" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="47" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>444</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>445</v>
+      </c>
+      <c r="D1" s="48" t="s">
         <v>446</v>
       </c>
-      <c r="B1" s="49" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="49">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>447</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C2" s="44" t="s">
         <v>448</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D2" s="50" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="51">
-        <v>1</v>
-      </c>
-      <c r="B2" s="33" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="49">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>450</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C3" s="51" t="s">
         <v>451</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D3" s="33"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="49">
+        <v>3</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="51">
-        <v>2</v>
-      </c>
-      <c r="B3" s="33" t="s">
+      <c r="C4" s="51" t="s">
         <v>453</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="D4" s="33"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="49">
+        <v>4</v>
+      </c>
+      <c r="B5" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="D3" s="33"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="51">
-        <v>3</v>
-      </c>
-      <c r="B4" s="33" t="s">
+      <c r="C5" s="51" t="s">
         <v>455</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="D5" s="33" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="49">
+        <v>5</v>
+      </c>
+      <c r="B6" s="33" t="s">
         <v>456</v>
       </c>
-      <c r="D4" s="33"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="51">
-        <v>4</v>
-      </c>
-      <c r="B5" s="33" t="s">
+      <c r="C6" s="51" t="s">
         <v>457</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="D6" s="33"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="49">
+        <v>6</v>
+      </c>
+      <c r="B7" s="33" t="s">
         <v>458</v>
       </c>
-      <c r="D5" s="33" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="51">
-        <v>5</v>
-      </c>
-      <c r="B6" s="33" t="s">
+      <c r="C7" s="51" t="s">
         <v>459</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="D7" s="33" t="s">
         <v>460</v>
       </c>
-      <c r="D6" s="33"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="51">
-        <v>6</v>
-      </c>
-      <c r="B7" s="33" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="49">
+        <v>7</v>
+      </c>
+      <c r="B8" s="33" t="s">
         <v>461</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C8" s="51" t="s">
         <v>462</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D8" s="33" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="51">
-        <v>7</v>
-      </c>
-      <c r="B8" s="33" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="49">
+        <v>8</v>
+      </c>
+      <c r="B9" s="33" t="s">
         <v>464</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C9" s="51" t="s">
         <v>465</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D9" s="33"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="49">
+        <v>9</v>
+      </c>
+      <c r="B10" s="33" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="51">
-        <v>8</v>
-      </c>
-      <c r="B9" s="33" t="s">
+      <c r="C10" s="51" t="s">
         <v>467</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="D10" s="33" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="49">
+        <v>10</v>
+      </c>
+      <c r="B11" s="33" t="s">
         <v>468</v>
       </c>
-      <c r="D9" s="33"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="51">
-        <v>9</v>
-      </c>
-      <c r="B10" s="33" t="s">
+      <c r="C11" s="51" t="s">
         <v>469</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="D11" s="33" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="49">
+        <v>11</v>
+      </c>
+      <c r="B12" s="33" t="s">
         <v>470</v>
       </c>
-      <c r="D10" s="33" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="51">
-        <v>10</v>
-      </c>
-      <c r="B11" s="33" t="s">
+      <c r="C12" s="51" t="s">
         <v>471</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="D12" s="33" t="s">
         <v>472</v>
       </c>
-      <c r="D11" s="33" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="51">
-        <v>11</v>
-      </c>
-      <c r="B12" s="33" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="49">
+        <v>12</v>
+      </c>
+      <c r="B13" s="33" t="s">
         <v>473</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C13" s="51" t="s">
         <v>474</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D13" s="33" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="51">
-        <v>12</v>
-      </c>
-      <c r="B13" s="33" t="s">
+    <row r="14" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="49">
+        <v>13</v>
+      </c>
+      <c r="B14" s="33" t="s">
         <v>476</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C14" s="51" t="s">
         <v>477</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D14" s="52" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="52.2">
-      <c r="A14" s="51">
-        <v>13</v>
-      </c>
-      <c r="B14" s="33" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="49">
+        <v>14</v>
+      </c>
+      <c r="B15" s="53" t="s">
         <v>479</v>
-      </c>
-      <c r="C14" s="53" t="s">
-        <v>480</v>
-      </c>
-      <c r="D14" s="54" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="51">
-        <v>14</v>
-      </c>
-      <c r="B15" s="55" t="s">
-        <v>482</v>
       </c>
       <c r="C15" s="33"/>
       <c r="D15" s="33" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="51">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="49">
         <v>15</v>
       </c>
-      <c r="B16" s="55" t="s">
-        <v>484</v>
+      <c r="B16" s="53" t="s">
+        <v>481</v>
       </c>
       <c r="C16" s="33"/>
       <c r="D16" s="33" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -4245,21 +4313,21 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.8984375" customWidth="1"/>
+    <col min="1" max="1" width="29.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.875" customWidth="1"/>
     <col min="5" max="5" width="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.3984375" customWidth="1"/>
-    <col min="7" max="7" width="17.59765625" customWidth="1"/>
+    <col min="6" max="6" width="18.375" customWidth="1"/>
+    <col min="7" max="7" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.4">
+    <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4275,14 +4343,14 @@
       <c r="E1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="43" t="s">
-        <v>499</v>
-      </c>
-      <c r="G1" s="43" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="F1" s="41" t="s">
+        <v>496</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>42</v>
       </c>
@@ -4301,7 +4369,7 @@
       <c r="F2" s="29"/>
       <c r="G2" s="29"/>
     </row>
-    <row r="3" spans="1:7" ht="31.2">
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>29</v>
       </c>
@@ -4318,34 +4386,30 @@
         <v>287</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>109</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>527</v>
-      </c>
-      <c r="F4" s="56" t="s">
-        <v>457</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="46.8">
+        <v>524</v>
+      </c>
+      <c r="F4" s="29"/>
+      <c r="G4" s="30"/>
+    </row>
+    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>43</v>
       </c>
@@ -4362,13 +4426,13 @@
         <v>332</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>44</v>
       </c>
@@ -4383,13 +4447,13 @@
         <v>333</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>382</v>
       </c>
@@ -4404,13 +4468,13 @@
         <v>334</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="31.2">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>45</v>
       </c>
@@ -4422,16 +4486,16 @@
         <v>205</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="31.2">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>46</v>
       </c>
@@ -4443,16 +4507,16 @@
         <v>206</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="31.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>383</v>
       </c>
@@ -4468,31 +4532,35 @@
       <c r="E10" s="23" t="s">
         <v>335</v>
       </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="31"/>
-    </row>
-    <row r="11" spans="1:7" ht="31.2">
+      <c r="F10" s="29" t="s">
+        <v>420</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>555</v>
-      </c>
-      <c r="F11" s="56" t="s">
-        <v>541</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="31.2">
+        <v>552</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>538</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>48</v>
       </c>
@@ -4508,10 +4576,14 @@
       <c r="E12" s="25" t="s">
         <v>336</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="31"/>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="F12" s="29" t="s">
+        <v>420</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>47</v>
       </c>
@@ -4520,15 +4592,15 @@
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="11" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="F13" s="29"/>
       <c r="G13" s="31"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>4</v>
       </c>
@@ -4542,33 +4614,29 @@
         <v>204</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="31"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>108</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="F15" s="56" t="s">
-        <v>455</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>553</v>
+      </c>
+      <c r="F15" s="29"/>
+      <c r="G15" s="31"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>41</v>
       </c>
@@ -4582,16 +4650,16 @@
         <v>207</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="F16" s="29" t="s">
+        <v>420</v>
+      </c>
+      <c r="G16" s="31" t="s">
         <v>422</v>
       </c>
-      <c r="G16" s="31" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>94</v>
       </c>
@@ -4602,19 +4670,19 @@
         <v>114</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="F17" s="29" t="s">
+        <v>420</v>
+      </c>
+      <c r="G17" s="31" t="s">
         <v>422</v>
       </c>
-      <c r="G17" s="31" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>384</v>
       </c>
@@ -4629,34 +4697,34 @@
         <v>337</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G18" s="31" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="F19" s="56" t="s">
-        <v>562</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>557</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>420</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>49</v>
       </c>
@@ -4667,7 +4735,7 @@
         <v>114</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>332</v>
@@ -4675,7 +4743,7 @@
       <c r="F20" s="29"/>
       <c r="G20" s="31"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>385</v>
       </c>
@@ -4684,97 +4752,113 @@
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="11" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="F21" s="29"/>
       <c r="G21" s="31"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>108</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-    </row>
-    <row r="23" spans="1:7">
+        <v>558</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>420</v>
+      </c>
+      <c r="G22" s="46" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-    </row>
-    <row r="24" spans="1:7">
+        <v>561</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>420</v>
+      </c>
+      <c r="G23" s="73" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="E24" s="61" t="s">
-        <v>531</v>
-      </c>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-    </row>
-    <row r="25" spans="1:7">
+        <v>562</v>
+      </c>
+      <c r="E24" s="59" t="s">
+        <v>528</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>420</v>
+      </c>
+      <c r="G24" s="73" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="E25" s="61" t="s">
-        <v>533</v>
-      </c>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-    </row>
-    <row r="26" spans="1:7">
+        <v>563</v>
+      </c>
+      <c r="E25" s="59" t="s">
+        <v>530</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="G25" s="73" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>574</v>
-      </c>
-      <c r="F26" s="33"/>
+        <v>567</v>
+      </c>
+      <c r="F26" s="29"/>
       <c r="G26" s="33"/>
     </row>
   </sheetData>
@@ -4786,391 +4870,431 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D904B8EF-F8E0-43CB-9C44-11111FED5783}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="59.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.69921875" customWidth="1"/>
-    <col min="7" max="7" width="17.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33.6">
+    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="60" t="s">
         <v>105</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="63" t="s">
-        <v>588</v>
-      </c>
-      <c r="G1" s="63" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="F1" s="61" t="s">
+        <v>581</v>
+      </c>
+      <c r="G1" s="61" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
-        <v>590</v>
-      </c>
-      <c r="B2" s="46" t="s">
+        <v>751</v>
+      </c>
+      <c r="B2" s="44" t="s">
         <v>108</v>
       </c>
       <c r="C2" s="33"/>
       <c r="D2" s="33" t="s">
-        <v>591</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>591</v>
-      </c>
-      <c r="F2" s="33" t="s">
-        <v>592</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="34.799999999999997">
-      <c r="A3" s="33" t="s">
-        <v>594</v>
-      </c>
-      <c r="B3" s="46" t="s">
-        <v>595</v>
+        <v>751</v>
+      </c>
+      <c r="E2" s="33"/>
+      <c r="F2" s="72" t="s">
+        <v>766</v>
+      </c>
+      <c r="G2" s="72" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="72" t="s">
+        <v>680</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>108</v>
       </c>
       <c r="C3" s="33"/>
       <c r="D3" s="33" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>597</v>
-      </c>
-      <c r="F3" s="54" t="s">
-        <v>598</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="34.799999999999997">
+        <v>583</v>
+      </c>
+      <c r="F3" s="72" t="s">
+        <v>766</v>
+      </c>
+      <c r="G3" s="72" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
-        <v>600</v>
-      </c>
-      <c r="B4" s="46" t="s">
-        <v>595</v>
+        <v>592</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>585</v>
       </c>
       <c r="C4" s="33"/>
       <c r="D4" s="33" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>602</v>
-      </c>
-      <c r="F4" s="54" t="s">
-        <v>598</v>
+        <v>592</v>
+      </c>
+      <c r="F4" s="72" t="s">
+        <v>766</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
-        <v>604</v>
-      </c>
-      <c r="B5" s="46" t="s">
-        <v>108</v>
+        <v>767</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>585</v>
       </c>
       <c r="C5" s="33"/>
       <c r="D5" s="33" t="s">
-        <v>605</v>
+        <v>586</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>605</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>606</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>587</v>
+      </c>
+      <c r="F5" s="72" t="s">
+        <v>766</v>
+      </c>
+      <c r="G5" s="72" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
-        <v>608</v>
-      </c>
-      <c r="B6" s="46" t="s">
-        <v>595</v>
+        <v>768</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>585</v>
       </c>
       <c r="C6" s="33"/>
       <c r="D6" s="33" t="s">
-        <v>609</v>
+        <v>589</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>609</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>610</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>590</v>
+      </c>
+      <c r="F6" s="72" t="s">
+        <v>766</v>
+      </c>
+      <c r="G6" s="72" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
-        <v>612</v>
-      </c>
-      <c r="B7" s="46" t="s">
-        <v>595</v>
+        <v>770</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>108</v>
       </c>
       <c r="C7" s="33"/>
       <c r="D7" s="33" t="s">
-        <v>609</v>
+        <v>770</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>609</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>606</v>
+        <v>770</v>
+      </c>
+      <c r="F7" s="72" t="s">
+        <v>766</v>
       </c>
       <c r="G7" s="33" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
-        <v>613</v>
-      </c>
-      <c r="B8" s="46" t="s">
-        <v>260</v>
+        <v>771</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>108</v>
       </c>
       <c r="C8" s="33"/>
       <c r="D8" s="33" t="s">
-        <v>614</v>
+        <v>771</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>614</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>541</v>
+        <v>771</v>
+      </c>
+      <c r="F8" s="72" t="s">
+        <v>766</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="33" t="s">
-        <v>615</v>
-      </c>
-      <c r="B9" s="64" t="s">
-        <v>616</v>
+        <v>769</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>108</v>
       </c>
       <c r="C9" s="33"/>
       <c r="D9" s="33" t="s">
-        <v>617</v>
+        <v>591</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>617</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>541</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>591</v>
+      </c>
+      <c r="F9" s="72" t="s">
+        <v>766</v>
+      </c>
+      <c r="G9" s="72" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="33" t="s">
-        <v>618</v>
-      </c>
-      <c r="B10" s="46" t="s">
-        <v>619</v>
+        <v>593</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>260</v>
       </c>
       <c r="C10" s="33"/>
       <c r="D10" s="33" t="s">
-        <v>620</v>
+        <v>594</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>620</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>541</v>
-      </c>
-      <c r="G10" s="33" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>594</v>
+      </c>
+      <c r="F10" s="72" t="s">
+        <v>538</v>
+      </c>
+      <c r="G10" s="72" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="33" t="s">
-        <v>621</v>
-      </c>
-      <c r="B11" s="46" t="s">
-        <v>619</v>
+        <v>595</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>596</v>
       </c>
       <c r="C11" s="33"/>
       <c r="D11" s="33" t="s">
-        <v>622</v>
+        <v>597</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>622</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>541</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>597</v>
+      </c>
+      <c r="F11" s="72" t="s">
+        <v>538</v>
+      </c>
+      <c r="G11" s="72" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
-        <v>623</v>
-      </c>
-      <c r="B12" s="46" t="s">
-        <v>619</v>
+        <v>598</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>599</v>
       </c>
       <c r="C12" s="33"/>
       <c r="D12" s="33" t="s">
-        <v>624</v>
+        <v>600</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>624</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>541</v>
-      </c>
-      <c r="G12" s="33" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>600</v>
+      </c>
+      <c r="F12" s="72" t="s">
+        <v>538</v>
+      </c>
+      <c r="G12" s="72" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
-        <v>625</v>
-      </c>
-      <c r="B13" s="46" t="s">
-        <v>626</v>
+        <v>601</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>599</v>
       </c>
       <c r="C13" s="33"/>
       <c r="D13" s="33" t="s">
-        <v>627</v>
+        <v>602</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>627</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>541</v>
-      </c>
-      <c r="G13" s="33" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>602</v>
+      </c>
+      <c r="F13" s="72" t="s">
+        <v>538</v>
+      </c>
+      <c r="G13" s="72" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="33" t="s">
-        <v>628</v>
-      </c>
-      <c r="B14" s="46" t="s">
-        <v>108</v>
+        <v>603</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>599</v>
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="33" t="s">
-        <v>629</v>
+        <v>604</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>629</v>
-      </c>
-      <c r="F14" s="33" t="s">
-        <v>541</v>
-      </c>
-      <c r="G14" s="33" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>604</v>
+      </c>
+      <c r="F14" s="72" t="s">
+        <v>538</v>
+      </c>
+      <c r="G14" s="72" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="33" t="s">
-        <v>630</v>
-      </c>
-      <c r="B15" s="46" t="s">
-        <v>631</v>
+        <v>605</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>606</v>
       </c>
       <c r="C15" s="33"/>
       <c r="D15" s="33" t="s">
-        <v>632</v>
+        <v>607</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>632</v>
-      </c>
-      <c r="F15" s="33" t="s">
-        <v>541</v>
-      </c>
-      <c r="G15" s="33" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>607</v>
+      </c>
+      <c r="F15" s="72" t="s">
+        <v>538</v>
+      </c>
+      <c r="G15" s="72" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
-        <v>633</v>
-      </c>
-      <c r="B16" s="46" t="s">
-        <v>631</v>
+        <v>608</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>108</v>
       </c>
       <c r="C16" s="33"/>
       <c r="D16" s="33" t="s">
-        <v>634</v>
+        <v>609</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>634</v>
-      </c>
-      <c r="F16" s="33" t="s">
-        <v>541</v>
-      </c>
-      <c r="G16" s="33" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>609</v>
+      </c>
+      <c r="F16" s="72" t="s">
+        <v>538</v>
+      </c>
+      <c r="G16" s="72" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="33" t="s">
-        <v>635</v>
-      </c>
-      <c r="B17" s="46" t="s">
-        <v>626</v>
+        <v>610</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>611</v>
       </c>
       <c r="C17" s="33"/>
       <c r="D17" s="33" t="s">
-        <v>636</v>
+        <v>612</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>636</v>
-      </c>
-      <c r="F17" s="33" t="s">
-        <v>541</v>
-      </c>
-      <c r="G17" s="33" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="65" t="s">
-        <v>637</v>
-      </c>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
+        <v>612</v>
+      </c>
+      <c r="F17" s="72" t="s">
+        <v>538</v>
+      </c>
+      <c r="G17" s="72" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="33" t="s">
+        <v>613</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>611</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33" t="s">
+        <v>614</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>614</v>
+      </c>
+      <c r="F18" s="72" t="s">
+        <v>538</v>
+      </c>
+      <c r="G18" s="72" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="33" t="s">
+        <v>615</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>606</v>
+      </c>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33" t="s">
+        <v>616</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>616</v>
+      </c>
+      <c r="F19" s="72" t="s">
+        <v>538</v>
+      </c>
+      <c r="G19" s="72" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="63" t="s">
+        <v>617</v>
+      </c>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5180,24 +5304,24 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="67.19921875" customWidth="1"/>
-    <col min="5" max="5" width="29.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.19921875" customWidth="1"/>
-    <col min="7" max="7" width="15.69921875" customWidth="1"/>
+    <col min="1" max="1" width="28.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.25" customWidth="1"/>
+    <col min="5" max="5" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.25" customWidth="1"/>
+    <col min="7" max="7" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.4">
+    <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5213,14 +5337,14 @@
       <c r="E1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="43" t="s">
-        <v>499</v>
-      </c>
-      <c r="G1" s="43" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="20" customFormat="1" ht="15.6">
+      <c r="F1" s="41" t="s">
+        <v>496</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>338</v>
       </c>
@@ -5233,13 +5357,13 @@
       <c r="D2" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="E2" s="61" t="s">
+      <c r="E2" s="59" t="s">
         <v>89</v>
       </c>
       <c r="F2" s="29"/>
       <c r="G2" s="29"/>
     </row>
-    <row r="3" spans="1:7" s="20" customFormat="1" ht="31.2">
+    <row r="3" spans="1:7" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>29</v>
       </c>
@@ -5252,36 +5376,34 @@
       <c r="D3" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="40" t="s">
         <v>287</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="20" customFormat="1" ht="15.6">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>108</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>527</v>
-      </c>
-      <c r="F4" s="56"/>
-      <c r="G4" s="1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="20" customFormat="1" ht="31.2">
+        <v>524</v>
+      </c>
+      <c r="F4" s="29"/>
+      <c r="G4" s="30"/>
+    </row>
+    <row r="5" spans="1:7" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>72</v>
       </c>
@@ -5294,17 +5416,17 @@
       <c r="D5" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="E5" s="61" t="s">
-        <v>694</v>
+      <c r="E5" s="59" t="s">
+        <v>670</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="20" customFormat="1" ht="15.6">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>73</v>
       </c>
@@ -5319,13 +5441,13 @@
         <v>339</v>
       </c>
       <c r="F6" s="29" t="s">
+        <v>427</v>
+      </c>
+      <c r="G6" s="31" t="s">
         <v>429</v>
       </c>
-      <c r="G6" s="31" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="20" customFormat="1" ht="15.6">
+    </row>
+    <row r="7" spans="1:7" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>386</v>
       </c>
@@ -5340,13 +5462,13 @@
         <v>339</v>
       </c>
       <c r="F7" s="29" t="s">
+        <v>427</v>
+      </c>
+      <c r="G7" s="31" t="s">
         <v>429</v>
       </c>
-      <c r="G7" s="31" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="20" customFormat="1" ht="15.6">
+    </row>
+    <row r="8" spans="1:7" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>74</v>
       </c>
@@ -5357,17 +5479,17 @@
       <c r="D8" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="40" t="s">
         <v>340</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="20" customFormat="1" ht="15.6">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>75</v>
       </c>
@@ -5378,17 +5500,17 @@
       <c r="D9" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="40" t="s">
         <v>217</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="20" customFormat="1" ht="15.6">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>76</v>
       </c>
@@ -5399,13 +5521,13 @@
       <c r="D10" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="E10" s="42" t="s">
-        <v>695</v>
+      <c r="E10" s="40" t="s">
+        <v>671</v>
       </c>
       <c r="F10" s="29"/>
       <c r="G10" s="31"/>
     </row>
-    <row r="11" spans="1:7" s="20" customFormat="1" ht="31.2">
+    <row r="11" spans="1:7" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>77</v>
       </c>
@@ -5419,33 +5541,33 @@
         <v>256</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>696</v>
+        <v>672</v>
       </c>
       <c r="F11" s="29"/>
       <c r="G11" s="31"/>
     </row>
-    <row r="12" spans="1:7" s="20" customFormat="1" ht="31.2">
+    <row r="12" spans="1:7" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>659</v>
+        <v>638</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11" t="s">
-        <v>660</v>
+        <v>639</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>661</v>
-      </c>
-      <c r="F12" s="56" t="s">
-        <v>486</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="20" customFormat="1" ht="15.6">
+        <v>640</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>483</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>47</v>
       </c>
@@ -5456,13 +5578,13 @@
       <c r="D13" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="E13" s="61" t="s">
-        <v>578</v>
+      <c r="E13" s="59" t="s">
+        <v>571</v>
       </c>
       <c r="F13" s="29"/>
       <c r="G13" s="31"/>
     </row>
-    <row r="14" spans="1:7" s="20" customFormat="1" ht="15.6">
+    <row r="14" spans="1:7" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>79</v>
       </c>
@@ -5473,13 +5595,13 @@
       <c r="D14" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="E14" s="61" t="s">
-        <v>578</v>
+      <c r="E14" s="59" t="s">
+        <v>571</v>
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="31"/>
     </row>
-    <row r="15" spans="1:7" s="20" customFormat="1" ht="30">
+    <row r="15" spans="1:7" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>387</v>
       </c>
@@ -5490,17 +5612,17 @@
       <c r="D15" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="E15" s="61" t="s">
+      <c r="E15" s="59" t="s">
         <v>341</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="20" customFormat="1" ht="15.6">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>388</v>
       </c>
@@ -5511,17 +5633,17 @@
       <c r="D16" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="E16" s="61" t="s">
+      <c r="E16" s="59" t="s">
         <v>342</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="20" customFormat="1" ht="15.6">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>80</v>
       </c>
@@ -5532,13 +5654,13 @@
       <c r="D17" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="E17" s="61" t="s">
-        <v>578</v>
+      <c r="E17" s="59" t="s">
+        <v>571</v>
       </c>
       <c r="F17" s="29"/>
       <c r="G17" s="31"/>
     </row>
-    <row r="18" spans="1:7" s="20" customFormat="1" ht="31.2">
+    <row r="18" spans="1:7" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>81</v>
       </c>
@@ -5551,13 +5673,13 @@
       <c r="D18" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="E18" s="42" t="s">
-        <v>523</v>
+      <c r="E18" s="40" t="s">
+        <v>520</v>
       </c>
       <c r="F18" s="29"/>
       <c r="G18" s="31"/>
     </row>
-    <row r="19" spans="1:7" s="20" customFormat="1" ht="15.6">
+    <row r="19" spans="1:7" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>83</v>
       </c>
@@ -5568,13 +5690,13 @@
       <c r="D19" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="E19" s="61" t="s">
-        <v>578</v>
+      <c r="E19" s="59" t="s">
+        <v>571</v>
       </c>
       <c r="F19" s="29"/>
       <c r="G19" s="31"/>
     </row>
-    <row r="20" spans="1:7" s="20" customFormat="1" ht="15.6">
+    <row r="20" spans="1:7" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>4</v>
       </c>
@@ -5587,34 +5709,34 @@
       <c r="D20" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="E20" s="61" t="s">
+      <c r="E20" s="59" t="s">
         <v>343</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="31"/>
-    </row>
-    <row r="21" spans="1:7" s="20" customFormat="1" ht="15.6">
+      <c r="F20" s="29" t="s">
+        <v>427</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>662</v>
+        <v>641</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>108</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11" t="s">
-        <v>557</v>
-      </c>
-      <c r="E21" s="61" t="s">
-        <v>663</v>
-      </c>
-      <c r="F21" s="56" t="s">
-        <v>455</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="20" customFormat="1" ht="15.6">
+        <v>554</v>
+      </c>
+      <c r="E21" s="59" t="s">
+        <v>642</v>
+      </c>
+      <c r="F21" s="29"/>
+      <c r="G21" s="31"/>
+    </row>
+    <row r="22" spans="1:7" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
         <v>41</v>
       </c>
@@ -5627,17 +5749,17 @@
       <c r="D22" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="E22" s="61" t="s">
+      <c r="E22" s="59" t="s">
         <v>344</v>
       </c>
       <c r="F22" s="29" t="s">
-        <v>429</v>
-      </c>
-      <c r="G22" s="31" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="20" customFormat="1" ht="15.6">
+        <v>410</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
         <v>94</v>
       </c>
@@ -5650,17 +5772,17 @@
       <c r="D23" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="E23" s="61" t="s">
-        <v>697</v>
+      <c r="E23" s="59" t="s">
+        <v>673</v>
       </c>
       <c r="F23" s="29" t="s">
-        <v>429</v>
-      </c>
-      <c r="G23" s="31" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="20" customFormat="1" ht="15.6">
+        <v>416</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
         <v>78</v>
       </c>
@@ -5671,55 +5793,59 @@
       <c r="D24" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="E24" s="61" t="s">
+      <c r="E24" s="59" t="s">
         <v>345</v>
       </c>
       <c r="F24" s="29" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G24" s="31" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>664</v>
+        <v>643</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11" t="s">
-        <v>665</v>
-      </c>
-      <c r="E25" s="61" t="s">
-        <v>666</v>
-      </c>
-      <c r="F25" s="56"/>
-      <c r="G25" s="15"/>
-    </row>
-    <row r="26" spans="1:7">
+        <v>644</v>
+      </c>
+      <c r="E25" s="59" t="s">
+        <v>645</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>427</v>
+      </c>
+      <c r="G25" s="31" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>108</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11" t="s">
-        <v>668</v>
-      </c>
-      <c r="E26" s="61" t="s">
-        <v>668</v>
-      </c>
-      <c r="F26" s="56" t="s">
-        <v>469</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>646</v>
+      </c>
+      <c r="E26" s="59" t="s">
+        <v>646</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>466</v>
+      </c>
+      <c r="G26" s="31" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="17" t="s">
         <v>84</v>
       </c>
@@ -5730,17 +5856,19 @@
         <v>114</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>698</v>
-      </c>
-      <c r="E27" s="61" t="s">
-        <v>699</v>
-      </c>
-      <c r="F27" s="29"/>
+        <v>674</v>
+      </c>
+      <c r="E27" s="59" t="s">
+        <v>675</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>466</v>
+      </c>
       <c r="G27" s="31" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
         <v>82</v>
       </c>
@@ -5751,17 +5879,17 @@
       <c r="D28" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="E28" s="61" t="s">
-        <v>578</v>
+      <c r="E28" s="59" t="s">
+        <v>571</v>
       </c>
       <c r="F28" s="29" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G28" s="31" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="32" t="s">
         <v>88</v>
       </c>
@@ -5772,293 +5900,314 @@
       <c r="D29" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="E29" s="61" t="s">
+      <c r="E29" s="59" t="s">
         <v>347</v>
       </c>
       <c r="F29" s="29" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G29" s="31" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
         <v>389</v>
       </c>
       <c r="B30" s="33"/>
       <c r="C30" s="33"/>
       <c r="D30" s="2" t="s">
-        <v>700</v>
+        <v>676</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>701</v>
-      </c>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33" t="s">
+        <v>677</v>
+      </c>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="31.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>108</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="E31" s="28" t="s">
-        <v>565</v>
-      </c>
-      <c r="F31" s="56"/>
-      <c r="G31" s="33"/>
-    </row>
-    <row r="32" spans="1:7">
+        <v>558</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="F31" s="29" t="s">
+        <v>427</v>
+      </c>
+      <c r="G31" s="46" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="E32" s="28" t="s">
-        <v>568</v>
-      </c>
-      <c r="F32" s="56"/>
-      <c r="G32" s="33"/>
-    </row>
-    <row r="33" spans="1:7">
+        <v>561</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>427</v>
+      </c>
+      <c r="G32" s="73" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>529</v>
-      </c>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46" t="s">
-        <v>569</v>
-      </c>
-      <c r="E33" s="61" t="s">
-        <v>531</v>
-      </c>
-      <c r="F33" s="56"/>
-      <c r="G33" s="33"/>
-    </row>
-    <row r="34" spans="1:7">
+        <v>526</v>
+      </c>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44" t="s">
+        <v>562</v>
+      </c>
+      <c r="E33" s="59" t="s">
+        <v>528</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>753</v>
+      </c>
+      <c r="G33" s="73" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>529</v>
-      </c>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46" t="s">
-        <v>570</v>
-      </c>
-      <c r="E34" s="61" t="s">
-        <v>533</v>
-      </c>
-      <c r="F34" s="46" t="s">
-        <v>453</v>
-      </c>
-      <c r="G34" s="33"/>
-    </row>
-    <row r="35" spans="1:7">
+        <v>526</v>
+      </c>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44" t="s">
+        <v>563</v>
+      </c>
+      <c r="E34" s="59" t="s">
+        <v>530</v>
+      </c>
+      <c r="F34" s="73" t="s">
+        <v>393</v>
+      </c>
+      <c r="G34" s="73" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
-        <v>669</v>
+        <v>647</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>670</v>
-      </c>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46" t="s">
-        <v>671</v>
-      </c>
-      <c r="E35" s="61" t="s">
-        <v>669</v>
-      </c>
-      <c r="F35" s="56"/>
-      <c r="G35" s="33"/>
-    </row>
-    <row r="36" spans="1:7">
+        <v>648</v>
+      </c>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44" t="s">
+        <v>649</v>
+      </c>
+      <c r="E35" s="59" t="s">
+        <v>647</v>
+      </c>
+      <c r="F35" s="29"/>
+      <c r="G35" s="73"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
-        <v>672</v>
+        <v>650</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46" t="s">
-        <v>673</v>
-      </c>
-      <c r="E36" s="61" t="s">
-        <v>672</v>
-      </c>
-      <c r="F36" s="56"/>
-      <c r="G36" s="33"/>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="C36" s="44"/>
+      <c r="D36" s="44" t="s">
+        <v>651</v>
+      </c>
+      <c r="E36" s="59" t="s">
+        <v>650</v>
+      </c>
+      <c r="F36" s="29"/>
+      <c r="G36" s="73"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
-        <v>674</v>
+        <v>652</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>675</v>
-      </c>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46" t="s">
-        <v>676</v>
-      </c>
-      <c r="E37" s="61" t="s">
-        <v>674</v>
-      </c>
-      <c r="F37" s="56"/>
-      <c r="G37" s="33"/>
-    </row>
-    <row r="38" spans="1:7">
+        <v>653</v>
+      </c>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44" t="s">
+        <v>654</v>
+      </c>
+      <c r="E37" s="59" t="s">
+        <v>652</v>
+      </c>
+      <c r="F37" s="29" t="s">
+        <v>753</v>
+      </c>
+      <c r="G37" s="73" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
-        <v>677</v>
+        <v>655</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>502</v>
-      </c>
-      <c r="C38" s="46"/>
-      <c r="D38" s="46" t="s">
-        <v>678</v>
-      </c>
-      <c r="E38" s="61" t="s">
-        <v>677</v>
-      </c>
-      <c r="F38" s="56"/>
-      <c r="G38" s="33"/>
-    </row>
-    <row r="39" spans="1:7">
+        <v>499</v>
+      </c>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44" t="s">
+        <v>656</v>
+      </c>
+      <c r="E38" s="59" t="s">
+        <v>655</v>
+      </c>
+      <c r="F38" s="29" t="s">
+        <v>753</v>
+      </c>
+      <c r="G38" s="73" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
-        <v>679</v>
+        <v>657</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>675</v>
-      </c>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46" t="s">
-        <v>680</v>
-      </c>
-      <c r="E39" s="61" t="s">
-        <v>681</v>
-      </c>
-      <c r="F39" s="56"/>
-      <c r="G39" s="33"/>
-    </row>
-    <row r="40" spans="1:7">
+        <v>653</v>
+      </c>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44" t="s">
+        <v>658</v>
+      </c>
+      <c r="E39" s="59" t="s">
+        <v>659</v>
+      </c>
+      <c r="F39" s="29" t="s">
+        <v>753</v>
+      </c>
+      <c r="G39" s="73" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
-        <v>682</v>
+        <v>660</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>675</v>
-      </c>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46" t="s">
-        <v>683</v>
-      </c>
-      <c r="E40" s="61" t="s">
-        <v>682</v>
-      </c>
-      <c r="F40" s="56"/>
-      <c r="G40" s="33"/>
-    </row>
-    <row r="41" spans="1:7">
+        <v>653</v>
+      </c>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44" t="s">
+        <v>661</v>
+      </c>
+      <c r="E40" s="59" t="s">
+        <v>660</v>
+      </c>
+      <c r="F40" s="29" t="s">
+        <v>753</v>
+      </c>
+      <c r="G40" s="73" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
-        <v>684</v>
+        <v>662</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>502</v>
-      </c>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46" t="s">
-        <v>685</v>
-      </c>
-      <c r="E41" s="61" t="s">
-        <v>684</v>
-      </c>
-      <c r="F41" s="56"/>
-      <c r="G41" s="33"/>
-    </row>
-    <row r="42" spans="1:7">
+        <v>499</v>
+      </c>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44" t="s">
+        <v>663</v>
+      </c>
+      <c r="E41" s="59" t="s">
+        <v>662</v>
+      </c>
+      <c r="F41" s="29"/>
+      <c r="G41" s="73"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
-        <v>686</v>
+        <v>664</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="C42" s="46"/>
-      <c r="D42" s="46" t="s">
-        <v>687</v>
-      </c>
-      <c r="E42" s="61" t="s">
-        <v>686</v>
-      </c>
-      <c r="F42" s="56"/>
-      <c r="G42" s="33"/>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="C42" s="44"/>
+      <c r="D42" s="44" t="s">
+        <v>665</v>
+      </c>
+      <c r="E42" s="59" t="s">
+        <v>664</v>
+      </c>
+      <c r="F42" s="29" t="s">
+        <v>753</v>
+      </c>
+      <c r="G42" s="73" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
-        <v>688</v>
+        <v>666</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>108</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="11" t="s">
-        <v>689</v>
-      </c>
-      <c r="E43" s="61" t="s">
-        <v>689</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="G43" s="33"/>
-    </row>
-    <row r="44" spans="1:7">
+        <v>667</v>
+      </c>
+      <c r="E43" s="59" t="s">
+        <v>667</v>
+      </c>
+      <c r="F43" s="73" t="s">
+        <v>753</v>
+      </c>
+      <c r="G43" s="73" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
-        <v>690</v>
+        <v>668</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="11" t="s">
-        <v>691</v>
-      </c>
-      <c r="E44" s="61" t="s">
-        <v>691</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="G44" s="33"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="11" t="s">
-        <v>692</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>502</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="11" t="s">
-        <v>693</v>
-      </c>
-      <c r="E45" s="61" t="s">
-        <v>693</v>
-      </c>
-      <c r="F45" s="56"/>
-      <c r="G45" s="33"/>
+        <v>669</v>
+      </c>
+      <c r="E44" s="59" t="s">
+        <v>669</v>
+      </c>
+      <c r="F44" s="73" t="s">
+        <v>753</v>
+      </c>
+      <c r="G44" s="73" t="s">
+        <v>779</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -6069,24 +6218,24 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="14.8984375" customWidth="1"/>
+    <col min="7" max="7" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="26.4">
+    <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6102,17 +6251,14 @@
       <c r="E1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="43" t="s">
-        <v>499</v>
-      </c>
-      <c r="G1" s="43" t="s">
-        <v>500</v>
-      </c>
-      <c r="J1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="20" customFormat="1" ht="171.6">
+      <c r="F1" s="41" t="s">
+        <v>496</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>62</v>
       </c>
@@ -6128,20 +6274,17 @@
       <c r="E2" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="J2" s="41" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="20" customFormat="1" ht="57" customHeight="1">
-      <c r="A3" s="47" t="s">
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+    </row>
+    <row r="3" spans="1:7" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+      <c r="A3" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="45" t="s">
         <v>114</v>
       </c>
       <c r="D3" s="11" t="s">
@@ -6151,99 +6294,95 @@
         <v>287</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="20" customFormat="1" ht="54" customHeight="1">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>108</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>527</v>
-      </c>
-      <c r="F4" s="56" t="s">
-        <v>457</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="20" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A5" s="47" t="s">
+        <v>524</v>
+      </c>
+      <c r="F4" s="29"/>
+      <c r="G4" s="30"/>
+    </row>
+    <row r="5" spans="1:7" s="20" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="45" t="s">
         <v>114</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>737</v>
+        <v>711</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>738</v>
+        <v>712</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="20" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A6" s="47" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="20" customFormat="1" ht="54" x14ac:dyDescent="0.3">
+      <c r="A6" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="47"/>
+      <c r="C6" s="45"/>
       <c r="D6" s="11" t="s">
         <v>235</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>739</v>
+        <v>713</v>
       </c>
       <c r="F6" s="29" t="s">
+        <v>435</v>
+      </c>
+      <c r="G6" s="30" t="s">
         <v>437</v>
       </c>
-      <c r="G6" s="30" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="20" customFormat="1" ht="54" customHeight="1">
-      <c r="A7" s="47" t="s">
+    </row>
+    <row r="7" spans="1:7" s="20" customFormat="1" ht="54" x14ac:dyDescent="0.3">
+      <c r="A7" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="47"/>
+      <c r="C7" s="45"/>
       <c r="D7" s="11" t="s">
         <v>236</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>739</v>
+        <v>713</v>
       </c>
       <c r="F7" s="29" t="s">
+        <v>435</v>
+      </c>
+      <c r="G7" s="30" t="s">
         <v>437</v>
       </c>
-      <c r="G7" s="30" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="20" customFormat="1" ht="31.2">
+    </row>
+    <row r="8" spans="1:7" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>96</v>
       </c>
@@ -6255,16 +6394,16 @@
         <v>237</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="F8" s="29" t="s">
+        <v>435</v>
+      </c>
+      <c r="G8" s="30" t="s">
         <v>437</v>
       </c>
-      <c r="G8" s="30" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="20" customFormat="1" ht="31.2">
+    </row>
+    <row r="9" spans="1:7" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>53</v>
       </c>
@@ -6280,31 +6419,35 @@
       <c r="E9" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-    </row>
-    <row r="10" spans="1:10" s="20" customFormat="1" ht="31.2">
+      <c r="F9" s="73" t="s">
+        <v>780</v>
+      </c>
+      <c r="G9" s="73" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>703</v>
+        <v>678</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11" t="s">
-        <v>704</v>
+        <v>679</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="F10" s="56" t="s">
-        <v>541</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="20" customFormat="1" ht="78">
+      <c r="F10" s="73" t="s">
+        <v>780</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="20" customFormat="1" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>54</v>
       </c>
@@ -6315,57 +6458,61 @@
         <v>114</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>731</v>
+        <v>706</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>741</v>
-      </c>
-      <c r="F11" s="34"/>
-      <c r="G11" s="18"/>
-    </row>
-    <row r="12" spans="1:10" s="20" customFormat="1" ht="15.6">
+        <v>715</v>
+      </c>
+      <c r="F11" s="73" t="s">
+        <v>780</v>
+      </c>
+      <c r="G11" s="73" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>730</v>
+        <v>705</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11" t="s">
-        <v>731</v>
+        <v>706</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>732</v>
-      </c>
-      <c r="F12" s="56" t="s">
-        <v>541</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="20" customFormat="1" ht="15.6">
-      <c r="A13" s="47" t="s">
+        <v>707</v>
+      </c>
+      <c r="F12" s="73" t="s">
+        <v>780</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="C13" s="47"/>
+      <c r="C13" s="45"/>
       <c r="D13" s="11" t="s">
-        <v>742</v>
+        <v>716</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>348</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>437</v>
-      </c>
-      <c r="G13" s="34" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="20" customFormat="1" ht="46.8">
+        <v>435</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="20" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>56</v>
       </c>
@@ -6381,31 +6528,35 @@
       <c r="E14" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="18"/>
-    </row>
-    <row r="15" spans="1:10" s="20" customFormat="1" ht="15.6">
+      <c r="F14" s="73" t="s">
+        <v>780</v>
+      </c>
+      <c r="G14" s="73" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>724</v>
+        <v>699</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11" t="s">
-        <v>725</v>
+        <v>700</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>726</v>
-      </c>
-      <c r="F15" s="56" t="s">
-        <v>541</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="20" customFormat="1" ht="31.2">
+        <v>701</v>
+      </c>
+      <c r="F15" s="73" t="s">
+        <v>780</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>233</v>
       </c>
@@ -6419,33 +6570,37 @@
         <v>239</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>743</v>
-      </c>
-      <c r="F16" s="34"/>
-      <c r="G16" s="18"/>
-    </row>
-    <row r="17" spans="1:7" s="20" customFormat="1" ht="15.6">
+        <v>717</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>782</v>
+      </c>
+      <c r="G16" s="73" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>727</v>
+        <v>702</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>728</v>
+        <v>703</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11" t="s">
-        <v>729</v>
+        <v>704</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>729</v>
-      </c>
-      <c r="F17" s="56" t="s">
-        <v>541</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="20" customFormat="1" ht="15.6">
+        <v>704</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>782</v>
+      </c>
+      <c r="G17" s="73" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>57</v>
       </c>
@@ -6460,13 +6615,13 @@
         <v>349</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>437</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="20" customFormat="1" ht="15.6">
+        <v>435</v>
+      </c>
+      <c r="G18" s="73" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>58</v>
       </c>
@@ -6481,20 +6636,20 @@
         <v>350</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>437</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="20" customFormat="1" ht="15.6">
-      <c r="A20" s="47" t="s">
+        <v>435</v>
+      </c>
+      <c r="G19" s="73" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A20" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="C20" s="47" t="s">
+      <c r="C20" s="45" t="s">
         <v>114</v>
       </c>
       <c r="D20" s="11" t="s">
@@ -6503,29 +6658,29 @@
       <c r="E20" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-    </row>
-    <row r="21" spans="1:7" s="20" customFormat="1" ht="15.6">
+      <c r="F20" s="30" t="s">
+        <v>435</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>662</v>
+        <v>641</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>108</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="E21" s="11"/>
-      <c r="F21" s="56" t="s">
-        <v>455</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="F21" s="29"/>
+      <c r="G21" s="31"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
         <v>41</v>
       </c>
@@ -6536,19 +6691,19 @@
         <v>114</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>744</v>
+        <v>718</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="F22" s="29" t="s">
-        <v>437</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="F22" s="73" t="s">
+        <v>410</v>
+      </c>
+      <c r="G22" s="73" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
         <v>94</v>
       </c>
@@ -6559,26 +6714,26 @@
         <v>114</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>697</v>
+        <v>673</v>
       </c>
       <c r="F23" s="29" t="s">
-        <v>437</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="47" t="s">
+        <v>416</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="47"/>
+      <c r="C24" s="45"/>
       <c r="D24" s="11" t="s">
         <v>243</v>
       </c>
@@ -6586,51 +6741,55 @@
         <v>352</v>
       </c>
       <c r="F24" s="29" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G24" s="30" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>734</v>
+        <v>709</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11" t="s">
-        <v>735</v>
+        <v>710</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>735</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="G25" s="28" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>710</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>783</v>
+      </c>
+      <c r="G25" s="30" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11" t="s">
-        <v>733</v>
+        <v>708</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>733</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7">
+        <v>708</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>783</v>
+      </c>
+      <c r="G26" s="30" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>60</v>
       </c>
@@ -6646,10 +6805,10 @@
       <c r="E27" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
         <v>97</v>
       </c>
@@ -6664,13 +6823,13 @@
         <v>353</v>
       </c>
       <c r="F28" s="29" t="s">
-        <v>437</v>
-      </c>
-      <c r="G28" s="18" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>435</v>
+      </c>
+      <c r="G28" s="73" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
         <v>61</v>
       </c>
@@ -6685,298 +6844,358 @@
         <v>354</v>
       </c>
       <c r="F29" s="29" t="s">
-        <v>437</v>
-      </c>
-      <c r="G29" s="34" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>435</v>
+      </c>
+      <c r="G29" s="30" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
         <v>389</v>
       </c>
       <c r="B30" s="33"/>
       <c r="C30" s="33"/>
       <c r="D30" s="2" t="s">
-        <v>745</v>
+        <v>719</v>
       </c>
       <c r="E30" s="2"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33" t="s">
+      <c r="F30" s="73"/>
+      <c r="G30" s="73" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="31.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>108</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-    </row>
-    <row r="32" spans="1:7">
+        <v>558</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="F31" s="73" t="s">
+        <v>435</v>
+      </c>
+      <c r="G31" s="46" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>705</v>
+        <v>680</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>706</v>
+        <v>681</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="11" t="s">
-        <v>705</v>
+        <v>680</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>705</v>
-      </c>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-    </row>
-    <row r="33" spans="1:7">
+        <v>680</v>
+      </c>
+      <c r="F32" s="73" t="s">
+        <v>435</v>
+      </c>
+      <c r="G32" s="73" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
-        <v>609</v>
+        <v>592</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="11" t="s">
-        <v>609</v>
+        <v>592</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>609</v>
-      </c>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-    </row>
-    <row r="34" spans="1:7">
+        <v>592</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>435</v>
+      </c>
+      <c r="G33" s="73" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-    </row>
-    <row r="35" spans="1:7">
+        <v>561</v>
+      </c>
+      <c r="F34" s="29" t="s">
+        <v>435</v>
+      </c>
+      <c r="G34" s="73" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>531</v>
-      </c>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-    </row>
-    <row r="36" spans="1:7">
+        <v>528</v>
+      </c>
+      <c r="F35" s="73" t="s">
+        <v>754</v>
+      </c>
+      <c r="G35" s="73" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>533</v>
-      </c>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-    </row>
-    <row r="37" spans="1:7">
+        <v>530</v>
+      </c>
+      <c r="F36" s="73" t="s">
+        <v>393</v>
+      </c>
+      <c r="G36" s="73" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
-        <v>707</v>
+        <v>682</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>708</v>
+        <v>683</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-    </row>
-    <row r="38" spans="1:7">
+        <v>682</v>
+      </c>
+      <c r="F37" s="73" t="s">
+        <v>754</v>
+      </c>
+      <c r="G37" s="73" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
-        <v>669</v>
+        <v>647</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>709</v>
+        <v>684</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>669</v>
+        <v>647</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-    </row>
-    <row r="39" spans="1:7">
+        <v>647</v>
+      </c>
+      <c r="F38" s="73"/>
+      <c r="G38" s="73"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
-        <v>710</v>
+        <v>685</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>711</v>
+        <v>686</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
-        <v>710</v>
+        <v>685</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>710</v>
-      </c>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-    </row>
-    <row r="40" spans="1:7">
+        <v>685</v>
+      </c>
+      <c r="F39" s="73" t="s">
+        <v>754</v>
+      </c>
+      <c r="G39" s="73" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
-        <v>712</v>
+        <v>687</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>711</v>
+        <v>686</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-    </row>
-    <row r="41" spans="1:7">
+        <v>437</v>
+      </c>
+      <c r="F40" s="73" t="s">
+        <v>754</v>
+      </c>
+      <c r="G40" s="73" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
-        <v>713</v>
+        <v>688</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>711</v>
+        <v>686</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>714</v>
+        <v>689</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-    </row>
-    <row r="42" spans="1:7">
+        <v>689</v>
+      </c>
+      <c r="F41" s="73" t="s">
+        <v>754</v>
+      </c>
+      <c r="G41" s="73" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
-        <v>715</v>
+        <v>690</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>711</v>
+        <v>686</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>716</v>
+        <v>691</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-    </row>
-    <row r="43" spans="1:7">
+        <v>690</v>
+      </c>
+      <c r="F42" s="73" t="s">
+        <v>754</v>
+      </c>
+      <c r="G42" s="73" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
-        <v>686</v>
+        <v>664</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>260</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
-        <v>687</v>
+        <v>665</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>686</v>
-      </c>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-    </row>
-    <row r="44" spans="1:7">
+        <v>664</v>
+      </c>
+      <c r="F43" s="73" t="s">
+        <v>754</v>
+      </c>
+      <c r="G43" s="73" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
-        <v>717</v>
+        <v>692</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>718</v>
+        <v>693</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>717</v>
-      </c>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-    </row>
-    <row r="45" spans="1:7">
+        <v>692</v>
+      </c>
+      <c r="F44" s="73" t="s">
+        <v>754</v>
+      </c>
+      <c r="G44" s="73" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
-        <v>719</v>
+        <v>694</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
-        <v>720</v>
+        <v>695</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>719</v>
-      </c>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-    </row>
-    <row r="46" spans="1:7">
+        <v>694</v>
+      </c>
+      <c r="F45" s="73" t="s">
+        <v>754</v>
+      </c>
+      <c r="G45" s="73" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
-        <v>721</v>
+        <v>696</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>722</v>
+        <v>697</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
-        <v>723</v>
+        <v>698</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>721</v>
-      </c>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
+        <v>696</v>
+      </c>
+      <c r="F46" s="73" t="s">
+        <v>754</v>
+      </c>
+      <c r="G46" s="73" t="s">
+        <v>439</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -6989,22 +7208,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.8984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.8984375" customWidth="1"/>
+    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.4">
+    <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7020,14 +7239,14 @@
       <c r="E1" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="43" t="s">
-        <v>499</v>
-      </c>
-      <c r="G1" s="43" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="22" customFormat="1" ht="15.6">
+      <c r="F1" s="41" t="s">
+        <v>496</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>63</v>
       </c>
@@ -7043,10 +7262,10 @@
       <c r="E2" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" s="22" customFormat="1" ht="31.2">
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+    </row>
+    <row r="3" spans="1:7" s="22" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>29</v>
       </c>
@@ -7062,35 +7281,31 @@
       <c r="E3" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="22" customFormat="1" ht="15.6">
+      <c r="F3" s="30" t="s">
+        <v>441</v>
+      </c>
+      <c r="G3" s="73" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>108</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>527</v>
-      </c>
-      <c r="F4" s="56" t="s">
-        <v>457</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="22" customFormat="1" ht="31.2">
+        <v>524</v>
+      </c>
+      <c r="F4" s="29"/>
+      <c r="G4" s="30"/>
+    </row>
+    <row r="5" spans="1:7" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>64</v>
       </c>
@@ -7106,14 +7321,14 @@
       <c r="E5" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="22" customFormat="1" ht="31.2">
+      <c r="F5" s="30" t="s">
+        <v>441</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="22" customFormat="1" ht="42.75" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>65</v>
       </c>
@@ -7127,14 +7342,14 @@
       <c r="E6" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="22" customFormat="1" ht="31.2">
+      <c r="F6" s="30" t="s">
+        <v>441</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="22" customFormat="1" ht="42.75" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>66</v>
       </c>
@@ -7148,31 +7363,31 @@
       <c r="E7" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="22" customFormat="1" ht="31.2">
+      <c r="F7" s="30" t="s">
+        <v>441</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="22" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>750</v>
+        <v>724</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>108</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11" t="s">
-        <v>751</v>
+        <v>725</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>751</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" s="22" customFormat="1" ht="31.2">
+        <v>725</v>
+      </c>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+    </row>
+    <row r="9" spans="1:7" s="22" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>67</v>
       </c>
@@ -7185,13 +7400,13 @@
       <c r="D9" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="E9" s="68" t="s">
+      <c r="E9" s="66" t="s">
         <v>366</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" s="22" customFormat="1" ht="31.2">
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+    </row>
+    <row r="10" spans="1:7" s="22" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>68</v>
       </c>
@@ -7202,17 +7417,17 @@
         <v>114</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>660</v>
-      </c>
-      <c r="E10" s="68" t="s">
-        <v>753</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" s="22" customFormat="1" ht="15.6">
+        <v>639</v>
+      </c>
+      <c r="E10" s="66" t="s">
+        <v>727</v>
+      </c>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+    </row>
+    <row r="11" spans="1:7" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>752</v>
+        <v>726</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -7220,16 +7435,16 @@
         <v>251</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>758</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="22" customFormat="1" ht="15.6">
+        <v>732</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>483</v>
+      </c>
+      <c r="G11" s="73" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>69</v>
       </c>
@@ -7241,12 +7456,12 @@
         <v>252</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>758</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" s="22" customFormat="1" ht="15.6">
+        <v>732</v>
+      </c>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+    </row>
+    <row r="13" spans="1:7" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>4</v>
       </c>
@@ -7259,32 +7474,32 @@
       <c r="D13" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="34" t="s">
         <v>391</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" s="22" customFormat="1" ht="31.2">
+      <c r="F13" s="30" t="s">
+        <v>441</v>
+      </c>
+      <c r="G13" s="73" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>662</v>
+        <v>641</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>108</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11" t="s">
-        <v>754</v>
+        <v>728</v>
       </c>
       <c r="E14" s="11"/>
-      <c r="F14" s="56" t="s">
-        <v>455</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="22" customFormat="1" ht="31.2">
+      <c r="F14" s="29"/>
+      <c r="G14" s="31"/>
+    </row>
+    <row r="15" spans="1:7" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>41</v>
       </c>
@@ -7300,14 +7515,14 @@
       <c r="E15" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="31.2">
+      <c r="F15" s="73" t="s">
+        <v>410</v>
+      </c>
+      <c r="G15" s="73" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>94</v>
       </c>
@@ -7321,16 +7536,16 @@
         <v>258</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>759</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="31.2">
+        <v>733</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>416</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>70</v>
       </c>
@@ -7344,54 +7559,54 @@
       <c r="E17" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="F17" s="30" t="s">
+        <v>441</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>755</v>
+        <v>729</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11" t="s">
-        <v>756</v>
+        <v>730</v>
       </c>
       <c r="E18" s="11"/>
-      <c r="F18" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="F18" s="30" t="s">
+        <v>441</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>108</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11" t="s">
-        <v>757</v>
+        <v>731</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>757</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>731</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>783</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>71</v>
       </c>
@@ -7402,17 +7617,15 @@
         <v>114</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>760</v>
+        <v>734</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="31.2">
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>90</v>
       </c>
@@ -7424,333 +7637,369 @@
         <v>255</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>758</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7">
+        <v>732</v>
+      </c>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
         <v>389</v>
       </c>
       <c r="B22" s="33"/>
       <c r="C22" s="33"/>
       <c r="D22" s="2" t="s">
-        <v>761</v>
+        <v>735</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33" t="s">
+        <v>735</v>
+      </c>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="31.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>108</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-    </row>
-    <row r="24" spans="1:7">
+        <v>558</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="F23" s="73" t="s">
+        <v>441</v>
+      </c>
+      <c r="G23" s="46" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>705</v>
+        <v>680</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>706</v>
+        <v>681</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="11" t="s">
-        <v>705</v>
+        <v>680</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>705</v>
-      </c>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-    </row>
-    <row r="25" spans="1:7">
+        <v>680</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>441</v>
+      </c>
+      <c r="G24" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>609</v>
+        <v>592</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="11" t="s">
-        <v>609</v>
+        <v>592</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>609</v>
-      </c>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-    </row>
-    <row r="26" spans="1:7">
+        <v>592</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>441</v>
+      </c>
+      <c r="G25" s="30" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-    </row>
-    <row r="27" spans="1:7">
+        <v>561</v>
+      </c>
+      <c r="F26" s="73" t="s">
+        <v>755</v>
+      </c>
+      <c r="G26" s="73" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>531</v>
-      </c>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-    </row>
-    <row r="28" spans="1:7">
+        <v>528</v>
+      </c>
+      <c r="F27" s="73" t="s">
+        <v>755</v>
+      </c>
+      <c r="G27" s="73" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>533</v>
-      </c>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-    </row>
-    <row r="29" spans="1:7">
+        <v>530</v>
+      </c>
+      <c r="F28" s="73" t="s">
+        <v>393</v>
+      </c>
+      <c r="G28" s="73" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
-        <v>672</v>
+        <v>650</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>108</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>673</v>
+        <v>651</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>672</v>
-      </c>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-    </row>
-    <row r="30" spans="1:7">
+        <v>650</v>
+      </c>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>707</v>
+        <v>682</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>631</v>
+        <v>611</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>707</v>
+        <v>682</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-    </row>
-    <row r="31" spans="1:7">
+        <v>682</v>
+      </c>
+      <c r="F30" s="73" t="s">
+        <v>755</v>
+      </c>
+      <c r="G30" s="73" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
-        <v>746</v>
+        <v>720</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>631</v>
+        <v>611</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="11" t="s">
-        <v>746</v>
+        <v>720</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>746</v>
-      </c>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-    </row>
-    <row r="32" spans="1:7">
+        <v>720</v>
+      </c>
+      <c r="F31" s="73" t="s">
+        <v>755</v>
+      </c>
+      <c r="G31" s="73" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>669</v>
+        <v>647</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>709</v>
+        <v>684</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>669</v>
+        <v>647</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-    </row>
-    <row r="33" spans="1:7">
+        <v>647</v>
+      </c>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
-        <v>710</v>
+        <v>685</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>711</v>
+        <v>686</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>710</v>
+        <v>685</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>710</v>
-      </c>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-    </row>
-    <row r="34" spans="1:7">
+        <v>685</v>
+      </c>
+      <c r="F33" s="73"/>
+      <c r="G33" s="73"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
-        <v>712</v>
+        <v>687</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>711</v>
+        <v>686</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-    </row>
-    <row r="35" spans="1:7">
+        <v>437</v>
+      </c>
+      <c r="F34" s="73"/>
+      <c r="G34" s="73"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
-        <v>713</v>
+        <v>688</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>711</v>
+        <v>686</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>714</v>
+        <v>689</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-    </row>
-    <row r="36" spans="1:7">
+        <v>689</v>
+      </c>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
-        <v>715</v>
+        <v>690</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>711</v>
+        <v>686</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>716</v>
+        <v>691</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-    </row>
-    <row r="37" spans="1:7">
+        <v>690</v>
+      </c>
+      <c r="F36" s="73"/>
+      <c r="G36" s="73"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
-        <v>686</v>
+        <v>664</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>260</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>687</v>
+        <v>665</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>686</v>
-      </c>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-    </row>
-    <row r="38" spans="1:7">
+        <v>664</v>
+      </c>
+      <c r="F37" s="73" t="s">
+        <v>755</v>
+      </c>
+      <c r="G37" s="73" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
-        <v>721</v>
+        <v>696</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>722</v>
+        <v>697</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="11" t="s">
+        <v>696</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>696</v>
+      </c>
+      <c r="F38" s="73"/>
+      <c r="G38" s="73"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="11" t="s">
         <v>721</v>
       </c>
-      <c r="E38" s="11" t="s">
-        <v>721</v>
-      </c>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="11" t="s">
-        <v>747</v>
-      </c>
       <c r="B39" s="11" t="s">
-        <v>722</v>
+        <v>697</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="11" t="s">
-        <v>747</v>
+        <v>721</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>747</v>
-      </c>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-    </row>
-    <row r="40" spans="1:7">
+        <v>721</v>
+      </c>
+      <c r="F39" s="73"/>
+      <c r="G39" s="73"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
-        <v>748</v>
+        <v>722</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>108</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="11" t="s">
-        <v>749</v>
+        <v>723</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>748</v>
-      </c>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
+        <v>722</v>
+      </c>
+      <c r="F40" s="73"/>
+      <c r="G40" s="73"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -7767,137 +8016,137 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.19921875" customWidth="1"/>
-    <col min="2" max="2" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.59765625" customWidth="1"/>
-    <col min="5" max="5" width="30.8984375" customWidth="1"/>
-    <col min="6" max="6" width="28.59765625" customWidth="1"/>
-    <col min="7" max="7" width="13.09765625" customWidth="1"/>
+    <col min="1" max="1" width="24.25" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.625" customWidth="1"/>
+    <col min="5" max="5" width="30.875" customWidth="1"/>
+    <col min="6" max="6" width="28.625" customWidth="1"/>
+    <col min="7" max="7" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33.6">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="63" t="s">
-        <v>499</v>
-      </c>
-      <c r="G1" s="63" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="31.2">
-      <c r="A2" s="56" t="s">
-        <v>762</v>
-      </c>
-      <c r="B2" s="56" t="s">
+      <c r="F1" s="61" t="s">
+        <v>496</v>
+      </c>
+      <c r="G1" s="61" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="A2" s="54" t="s">
+        <v>736</v>
+      </c>
+      <c r="B2" s="54" t="s">
         <v>106</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>113</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>763</v>
+        <v>737</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>763</v>
+        <v>737</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="56" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="54" t="s">
         <v>106</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>114</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>764</v>
+        <v>738</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>764</v>
-      </c>
-      <c r="F3" s="56" t="s">
-        <v>765</v>
+        <v>738</v>
+      </c>
+      <c r="F3" s="54" t="s">
+        <v>739</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="93.6">
-      <c r="A4" s="56" t="s">
-        <v>766</v>
-      </c>
-      <c r="B4" s="56" t="s">
+    <row r="4" spans="1:7" ht="81" x14ac:dyDescent="0.3">
+      <c r="A4" s="54" t="s">
+        <v>740</v>
+      </c>
+      <c r="B4" s="54" t="s">
         <v>122</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>767</v>
+        <v>741</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>767</v>
+        <v>741</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>768</v>
+        <v>742</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="93.6">
-      <c r="A5" s="56" t="s">
-        <v>770</v>
-      </c>
-      <c r="B5" s="56" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="81" x14ac:dyDescent="0.3">
+      <c r="A5" s="54" t="s">
+        <v>744</v>
+      </c>
+      <c r="B5" s="54" t="s">
         <v>122</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>771</v>
+        <v>745</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>771</v>
+        <v>745</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>768</v>
+        <v>742</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="46.8">
-      <c r="A6" s="56" t="s">
-        <v>773</v>
-      </c>
-      <c r="B6" s="56" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="54" t="s">
+        <v>747</v>
+      </c>
+      <c r="B6" s="54" t="s">
         <v>106</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="1" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -7916,16 +8165,16 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="12.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="26.69921875" customWidth="1"/>
+    <col min="5" max="5" width="26.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.2">
+    <row r="1" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7942,7 +8191,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>9</v>
       </c>
@@ -7959,7 +8208,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="31.2">
+    <row r="3" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>10</v>
       </c>
@@ -7974,7 +8223,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>11</v>
       </c>
@@ -7989,7 +8238,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="31.2">
+    <row r="5" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>12</v>
       </c>
@@ -8004,7 +8253,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>13</v>
       </c>
@@ -8019,7 +8268,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>14</v>
       </c>
@@ -8034,7 +8283,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>15</v>
       </c>
@@ -8049,7 +8298,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>16</v>
       </c>
@@ -8064,7 +8313,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>162</v>
       </c>
@@ -8079,7 +8328,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>163</v>
       </c>
@@ -8108,18 +8357,18 @@
       <selection activeCell="F1" sqref="F1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.4">
+    <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -8135,14 +8384,14 @@
       <c r="E1" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="43" t="s">
-        <v>499</v>
-      </c>
-      <c r="G1" s="43" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="F1" s="41" t="s">
+        <v>496</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>17</v>
       </c>
@@ -8158,10 +8407,10 @@
       <c r="E2" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>18</v>
       </c>
@@ -8175,14 +8424,14 @@
       <c r="E3" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="F3" s="44" t="s">
-        <v>395</v>
-      </c>
-      <c r="G3" s="45" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="31.2">
+      <c r="F3" s="42" t="s">
+        <v>393</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>19</v>
       </c>
@@ -8198,10 +8447,10 @@
       <c r="E4" s="26" t="s">
         <v>294</v>
       </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="45"/>
-    </row>
-    <row r="5" spans="1:7" ht="78">
+      <c r="F4" s="42"/>
+      <c r="G4" s="43"/>
+    </row>
+    <row r="5" spans="1:7" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
@@ -8214,17 +8463,17 @@
       <c r="D5" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="40" t="s">
         <v>367</v>
       </c>
-      <c r="F5" s="44" t="s">
-        <v>395</v>
-      </c>
-      <c r="G5" s="45" t="s">
+      <c r="F5" s="42" t="s">
+        <v>393</v>
+      </c>
+      <c r="G5" s="43" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>20</v>
       </c>
@@ -8238,14 +8487,14 @@
       <c r="E6" s="26" t="s">
         <v>295</v>
       </c>
-      <c r="F6" s="44" t="s">
-        <v>395</v>
-      </c>
-      <c r="G6" s="45" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="F6" s="42" t="s">
+        <v>393</v>
+      </c>
+      <c r="G6" s="43" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>21</v>
       </c>
@@ -8259,11 +8508,11 @@
       <c r="E7" s="26" t="s">
         <v>296</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="42" t="s">
+        <v>393</v>
+      </c>
+      <c r="G7" s="43" t="s">
         <v>395</v>
-      </c>
-      <c r="G7" s="45" t="s">
-        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -8274,24 +8523,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1"/>
+      <selection activeCell="G18" sqref="A18:G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.19921875" customWidth="1"/>
-    <col min="7" max="7" width="12.8984375" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
+    <col min="7" max="7" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.4">
+    <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -8307,14 +8556,14 @@
       <c r="E1" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="43" t="s">
-        <v>499</v>
-      </c>
-      <c r="G1" s="43" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="F1" s="41" t="s">
+        <v>496</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>22</v>
       </c>
@@ -8330,10 +8579,10 @@
       <c r="E2" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>23</v>
       </c>
@@ -8347,10 +8596,10 @@
       <c r="E3" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="F3" s="44"/>
-      <c r="G3" s="46"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="F3" s="42"/>
+      <c r="G3" s="44"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>24</v>
       </c>
@@ -8364,10 +8613,10 @@
       <c r="E4" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="45"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="F4" s="42"/>
+      <c r="G4" s="43"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>25</v>
       </c>
@@ -8381,10 +8630,10 @@
       <c r="E5" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F5" s="44"/>
-      <c r="G5" s="45"/>
-    </row>
-    <row r="6" spans="1:7" ht="46.8">
+      <c r="F5" s="42"/>
+      <c r="G5" s="43"/>
+    </row>
+    <row r="6" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>86</v>
       </c>
@@ -8400,35 +8649,35 @@
       <c r="E6" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="F6" s="56" t="s">
-        <v>486</v>
+      <c r="F6" s="54" t="s">
+        <v>483</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="31.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="F7" s="56" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="F7" s="54" t="s">
+        <v>483</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="31.2">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
@@ -8444,31 +8693,31 @@
       <c r="E8" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="F8" s="44" t="s">
-        <v>398</v>
-      </c>
-      <c r="G8" s="46" t="s">
+      <c r="F8" s="42" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="44" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>108</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="F9" s="56"/>
+        <v>486</v>
+      </c>
+      <c r="F9" s="54"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>2</v>
       </c>
@@ -8482,14 +8731,14 @@
       <c r="E10" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="F10" s="44" t="s">
-        <v>398</v>
-      </c>
-      <c r="G10" s="46" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="F10" s="42" t="s">
+        <v>396</v>
+      </c>
+      <c r="G10" s="44" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>1</v>
       </c>
@@ -8505,10 +8754,10 @@
       <c r="E11" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="F11" s="44"/>
-      <c r="G11" s="45"/>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="F11" s="42"/>
+      <c r="G11" s="43"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>26</v>
       </c>
@@ -8522,14 +8771,14 @@
       <c r="E12" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="F12" s="44" t="s">
-        <v>398</v>
-      </c>
-      <c r="G12" s="46" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="F12" s="42" t="s">
+        <v>396</v>
+      </c>
+      <c r="G12" s="44" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>27</v>
       </c>
@@ -8543,31 +8792,31 @@
       <c r="E13" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="F13" s="44" t="s">
-        <v>398</v>
-      </c>
-      <c r="G13" s="46" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="F13" s="42" t="s">
+        <v>396</v>
+      </c>
+      <c r="G13" s="44" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>108</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="F14" s="56"/>
+        <v>487</v>
+      </c>
+      <c r="F14" s="54"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>28</v>
       </c>
@@ -8583,10 +8832,10 @@
       <c r="E15" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="F15" s="44"/>
-      <c r="G15" s="45"/>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="F15" s="42"/>
+      <c r="G15" s="43"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>6</v>
       </c>
@@ -8600,14 +8849,14 @@
       <c r="E16" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="F16" s="44" t="s">
+      <c r="F16" s="42" t="s">
+        <v>396</v>
+      </c>
+      <c r="G16" s="44" t="s">
         <v>398</v>
       </c>
-      <c r="G16" s="46" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>7</v>
       </c>
@@ -8623,8 +8872,27 @@
       <c r="E17" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="F17" s="44"/>
-      <c r="G17" s="45"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="43"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="68" t="s">
+        <v>394</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="68" t="s">
+        <v>751</v>
+      </c>
+      <c r="E18" s="33"/>
+      <c r="F18" s="68" t="s">
+        <v>396</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>394</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -8641,18 +8909,18 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.09765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.4">
+    <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>111</v>
       </c>
@@ -8668,14 +8936,14 @@
       <c r="E1" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="43" t="s">
-        <v>499</v>
-      </c>
-      <c r="G1" s="43" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="31.2">
+      <c r="F1" s="41" t="s">
+        <v>496</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>259</v>
       </c>
@@ -8691,14 +8959,14 @@
       <c r="E2" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="F2" s="44" t="s">
-        <v>405</v>
-      </c>
-      <c r="G2" s="45" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="31.2">
+      <c r="F2" s="42" t="s">
+        <v>403</v>
+      </c>
+      <c r="G2" s="43" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>261</v>
       </c>
@@ -8709,19 +8977,19 @@
         <v>114</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="42" t="s">
+        <v>403</v>
+      </c>
+      <c r="G3" s="43" t="s">
         <v>405</v>
       </c>
-      <c r="G3" s="45" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="31.2">
+    </row>
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>262</v>
       </c>
@@ -8735,14 +9003,14 @@
       <c r="E4" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="F4" s="44" t="s">
-        <v>405</v>
-      </c>
-      <c r="G4" s="45" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="F4" s="42" t="s">
+        <v>403</v>
+      </c>
+      <c r="G4" s="43" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>263</v>
       </c>
@@ -8756,14 +9024,14 @@
       <c r="E5" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="F5" s="44" t="s">
-        <v>405</v>
-      </c>
-      <c r="G5" s="45" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="F5" s="42" t="s">
+        <v>403</v>
+      </c>
+      <c r="G5" s="43" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>265</v>
       </c>
@@ -8777,14 +9045,14 @@
       <c r="E6" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="F6" s="44" t="s">
-        <v>405</v>
-      </c>
-      <c r="G6" s="45" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="31.2">
+      <c r="F6" s="42" t="s">
+        <v>403</v>
+      </c>
+      <c r="G6" s="43" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>267</v>
       </c>
@@ -8798,14 +9066,14 @@
       <c r="E7" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F7" s="44" t="s">
-        <v>405</v>
-      </c>
-      <c r="G7" s="45" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="31.2">
+      <c r="F7" s="42" t="s">
+        <v>403</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>371</v>
       </c>
@@ -8817,16 +9085,16 @@
         <v>372</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="F8" s="44" t="s">
-        <v>403</v>
-      </c>
-      <c r="G8" s="45" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="31.2">
+        <v>508</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>401</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
@@ -8838,16 +9106,16 @@
         <v>110</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="F9" s="44" t="s">
-        <v>405</v>
-      </c>
-      <c r="G9" s="44" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="46.8">
+        <v>509</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>403</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>269</v>
       </c>
@@ -8861,12 +9129,12 @@
         <v>118</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="F10" s="44"/>
-      <c r="G10" s="45"/>
-    </row>
-    <row r="11" spans="1:7" ht="93.6">
+        <v>510</v>
+      </c>
+      <c r="F10" s="42"/>
+      <c r="G10" s="43"/>
+    </row>
+    <row r="11" spans="1:7" ht="81" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>270</v>
       </c>
@@ -8877,19 +9145,19 @@
         <v>114</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="F11" s="44" t="s">
-        <v>405</v>
-      </c>
-      <c r="G11" s="45" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>512</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>403</v>
+      </c>
+      <c r="G11" s="43" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>271</v>
       </c>
@@ -8900,15 +9168,15 @@
         <v>114</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="F12" s="44"/>
-      <c r="G12" s="45"/>
-    </row>
-    <row r="13" spans="1:7" ht="31.2">
+        <v>510</v>
+      </c>
+      <c r="F12" s="42"/>
+      <c r="G12" s="43"/>
+    </row>
+    <row r="13" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>272</v>
       </c>
@@ -8922,12 +9190,12 @@
         <v>119</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="F13" s="44"/>
-      <c r="G13" s="45"/>
-    </row>
-    <row r="14" spans="1:7">
+        <v>510</v>
+      </c>
+      <c r="F13" s="42"/>
+      <c r="G13" s="43"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>273</v>
       </c>
@@ -8936,36 +9204,36 @@
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="F14" s="44" t="s">
-        <v>405</v>
-      </c>
-      <c r="G14" s="45" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="F14" s="42" t="s">
+        <v>403</v>
+      </c>
+      <c r="G14" s="43" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>109</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="F15" s="56"/>
+        <v>506</v>
+      </c>
+      <c r="F15" s="54"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>274</v>
       </c>
@@ -8974,19 +9242,19 @@
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="F16" s="44" t="s">
+      <c r="F16" s="42" t="s">
+        <v>403</v>
+      </c>
+      <c r="G16" s="43" t="s">
         <v>405</v>
       </c>
-      <c r="G16" s="45" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>275</v>
       </c>
@@ -8997,15 +9265,15 @@
         <v>114</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="F17" s="44"/>
-      <c r="G17" s="45"/>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="F17" s="42"/>
+      <c r="G17" s="43"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>85</v>
       </c>
@@ -9014,19 +9282,19 @@
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="F18" s="44" t="s">
-        <v>405</v>
-      </c>
-      <c r="G18" s="44" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>518</v>
+      </c>
+      <c r="F18" s="42" t="s">
+        <v>403</v>
+      </c>
+      <c r="G18" s="42" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>276</v>
       </c>
@@ -9037,15 +9305,15 @@
         <v>114</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="F19" s="44"/>
-      <c r="G19" s="45"/>
-    </row>
-    <row r="20" spans="1:7">
+        <v>520</v>
+      </c>
+      <c r="F19" s="42"/>
+      <c r="G19" s="43"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>277</v>
       </c>
@@ -9054,15 +9322,15 @@
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="F20" s="44"/>
-      <c r="G20" s="45"/>
-    </row>
-    <row r="21" spans="1:7">
+        <v>510</v>
+      </c>
+      <c r="F20" s="42"/>
+      <c r="G20" s="43"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>278</v>
       </c>
@@ -9073,44 +9341,44 @@
         <v>114</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="F21" s="44"/>
-      <c r="G21" s="45"/>
-    </row>
-    <row r="22" spans="1:7">
+        <v>520</v>
+      </c>
+      <c r="F21" s="42"/>
+      <c r="G21" s="43"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F22" s="33"/>
       <c r="G22" s="33"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F23" s="33"/>
       <c r="G23" s="33"/>
@@ -9130,16 +9398,16 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.8984375" customWidth="1"/>
-    <col min="5" max="5" width="43.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.875" customWidth="1"/>
+    <col min="5" max="5" width="43.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.2">
+    <row r="1" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -9156,7 +9424,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="31.2">
+    <row r="2" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>104</v>
       </c>
@@ -9173,7 +9441,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>98</v>
       </c>
@@ -9188,7 +9456,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>101</v>
       </c>
@@ -9203,7 +9471,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="62.4">
+    <row r="5" spans="1:5" ht="54" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>102</v>
       </c>
@@ -9220,7 +9488,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>99</v>
       </c>
@@ -9237,7 +9505,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>100</v>
       </c>
@@ -9252,7 +9520,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>103</v>
       </c>
@@ -9280,71 +9548,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="61.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.09765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.09765625" customWidth="1"/>
-    <col min="7" max="7" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.125" customWidth="1"/>
+    <col min="7" max="7" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.4">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="43" t="s">
-        <v>499</v>
-      </c>
-      <c r="G1" s="43" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="39" t="s">
+      <c r="F1" s="41" t="s">
+        <v>496</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="38" t="s">
         <v>392</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="38" t="s">
         <v>113</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="40" t="s">
         <v>89</v>
       </c>
       <c r="F2" s="29"/>
       <c r="G2" s="29"/>
     </row>
-    <row r="3" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A3" s="39" t="s">
+    <row r="3" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="38" t="s">
         <v>114</v>
       </c>
       <c r="D3" s="11" t="s">
@@ -9354,270 +9622,270 @@
         <v>287</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>108</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>527</v>
-      </c>
-      <c r="F4" s="56"/>
+        <v>524</v>
+      </c>
+      <c r="F4" s="54"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="46.8">
-      <c r="A5" s="40" t="s">
+    <row r="5" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="57" t="s">
         <v>183</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="40" t="s">
         <v>312</v>
       </c>
       <c r="F5" s="29" t="s">
+        <v>410</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="39"/>
+      <c r="D6" s="57" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>313</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>410</v>
+      </c>
+      <c r="G6" s="31" t="s">
         <v>412</v>
       </c>
-      <c r="G5" s="31" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="46.8">
-      <c r="A6" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="59" t="s">
-        <v>168</v>
-      </c>
-      <c r="E6" s="57" t="s">
-        <v>313</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>412</v>
-      </c>
-      <c r="G6" s="31" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="46.8">
-      <c r="A7" s="40" t="s">
+    </row>
+    <row r="7" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="59" t="s">
+      <c r="C7" s="39"/>
+      <c r="D7" s="57" t="s">
         <v>169</v>
       </c>
       <c r="E7" s="27" t="s">
         <v>314</v>
       </c>
       <c r="F7" s="29" t="s">
+        <v>410</v>
+      </c>
+      <c r="G7" s="31" t="s">
         <v>412</v>
       </c>
-      <c r="G7" s="31" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="46.8">
-      <c r="A8" s="40" t="s">
+    </row>
+    <row r="8" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="59" t="s">
+      <c r="C8" s="39"/>
+      <c r="D8" s="57" t="s">
         <v>170</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="40" t="s">
         <v>315</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A9" s="40" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="59" t="s">
+      <c r="C9" s="39"/>
+      <c r="D9" s="57" t="s">
         <v>171</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="40" t="s">
         <v>316</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="31.2">
-      <c r="A10" s="40" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="A10" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="D10" s="57" t="s">
         <v>256</v>
       </c>
-      <c r="E10" s="57" t="s">
+      <c r="E10" s="55" t="s">
         <v>317</v>
       </c>
       <c r="F10" s="29"/>
       <c r="G10" s="31"/>
     </row>
-    <row r="11" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A11" s="59" t="s">
-        <v>540</v>
+    <row r="11" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="57" t="s">
+        <v>537</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>492</v>
-      </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59" t="s">
-        <v>535</v>
-      </c>
-      <c r="E11" s="57" t="s">
-        <v>536</v>
-      </c>
-      <c r="F11" s="56" t="s">
-        <v>541</v>
+        <v>489</v>
+      </c>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57" t="s">
+        <v>532</v>
+      </c>
+      <c r="E11" s="55" t="s">
+        <v>533</v>
+      </c>
+      <c r="F11" s="54" t="s">
+        <v>538</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="46.8">
-      <c r="A12" s="40" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="57" t="s">
         <v>173</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="40" t="s">
         <v>318</v>
       </c>
       <c r="F12" s="29"/>
       <c r="G12" s="31"/>
     </row>
-    <row r="13" spans="1:7" ht="31.2">
-      <c r="A13" s="39" t="s">
+    <row r="13" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="A13" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="38" t="s">
         <v>114</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="40" t="s">
         <v>319</v>
       </c>
       <c r="F13" s="29"/>
       <c r="G13" s="31"/>
     </row>
-    <row r="14" spans="1:7" ht="46.8">
-      <c r="A14" s="39" t="s">
+    <row r="14" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="39"/>
+      <c r="C14" s="38"/>
       <c r="D14" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="E14" s="42" t="s">
+      <c r="E14" s="40" t="s">
         <v>368</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="46.8">
-      <c r="A15" s="39" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="38" t="s">
         <v>114</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="E15" s="40" t="s">
         <v>320</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="78">
-      <c r="A16" s="39" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="38" t="s">
         <v>114</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E16" s="28" t="s">
         <v>362</v>
@@ -9625,71 +9893,71 @@
       <c r="F16" s="29"/>
       <c r="G16" s="31"/>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="40" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="40"/>
+      <c r="C17" s="39"/>
       <c r="D17" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="E17" s="60"/>
+        <v>535</v>
+      </c>
+      <c r="E17" s="58"/>
       <c r="F17" s="29" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="29.25" customHeight="1">
-      <c r="A18" s="39" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="94.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="38" t="s">
         <v>114</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="E18" s="60" t="s">
+      <c r="E18" s="58" t="s">
         <v>363</v>
       </c>
       <c r="F18" s="29"/>
       <c r="G18" s="31"/>
     </row>
-    <row r="19" spans="1:7" ht="29.25" customHeight="1">
-      <c r="A19" s="39" t="s">
+    <row r="19" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C19" s="39"/>
+      <c r="C19" s="38"/>
       <c r="D19" s="15" t="s">
-        <v>539</v>
-      </c>
-      <c r="E19" s="60"/>
+        <v>536</v>
+      </c>
+      <c r="E19" s="58"/>
       <c r="F19" s="29" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="29.25" customHeight="1">
-      <c r="A20" s="39" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C20" s="39"/>
+      <c r="C20" s="38"/>
       <c r="D20" s="15" t="s">
         <v>181</v>
       </c>
@@ -9703,57 +9971,57 @@
         <v>374</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="29.25" customHeight="1">
+    <row r="21" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="15" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>530</v>
-      </c>
-      <c r="F21" s="58" t="s">
-        <v>412</v>
-      </c>
-      <c r="G21" s="48" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="29.25" customHeight="1">
+        <v>527</v>
+      </c>
+      <c r="F21" s="56" t="s">
+        <v>410</v>
+      </c>
+      <c r="G21" s="46" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="F22" s="33"/>
       <c r="G22" s="33"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="F23" s="33"/>
       <c r="G23" s="33"/>
@@ -9767,24 +10035,24 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4475453-F8A9-444B-9F7E-F19D36EE47F7}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.69921875" customWidth="1"/>
-    <col min="7" max="7" width="15.09765625" customWidth="1"/>
+    <col min="1" max="1" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.75" customWidth="1"/>
+    <col min="7" max="7" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.4">
+    <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -9800,14 +10068,14 @@
       <c r="E1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="43" t="s">
-        <v>499</v>
-      </c>
-      <c r="G1" s="43" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="20" customFormat="1" ht="15.6">
+      <c r="F1" s="41" t="s">
+        <v>496</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>322</v>
       </c>
@@ -9826,7 +10094,7 @@
       <c r="F2" s="29"/>
       <c r="G2" s="29"/>
     </row>
-    <row r="3" spans="1:7" ht="31.2">
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -9843,34 +10111,34 @@
         <v>323</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>108</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>527</v>
-      </c>
-      <c r="F4" s="56" t="s">
-        <v>457</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="31.2">
+        <v>524</v>
+      </c>
+      <c r="F4" s="70" t="s">
+        <v>454</v>
+      </c>
+      <c r="G4" s="71" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>185</v>
       </c>
@@ -9887,9 +10155,11 @@
         <v>364</v>
       </c>
       <c r="F5" s="29"/>
-      <c r="G5" s="31"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="31">
+        <v>32037</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>376</v>
       </c>
@@ -9904,13 +10174,13 @@
         <v>324</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>377</v>
       </c>
@@ -9925,13 +10195,13 @@
         <v>325</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>186</v>
       </c>
@@ -9946,13 +10216,13 @@
         <v>326</v>
       </c>
       <c r="F8" s="29" t="s">
+        <v>416</v>
+      </c>
+      <c r="G8" s="31" t="s">
         <v>418</v>
       </c>
-      <c r="G8" s="31" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>378</v>
       </c>
@@ -9967,13 +10237,13 @@
         <v>327</v>
       </c>
       <c r="F9" s="29" t="s">
+        <v>416</v>
+      </c>
+      <c r="G9" s="31" t="s">
         <v>418</v>
       </c>
-      <c r="G9" s="31" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>187</v>
       </c>
@@ -9987,33 +10257,33 @@
         <v>256</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F10" s="29"/>
       <c r="G10" s="31"/>
     </row>
-    <row r="11" spans="1:7" ht="31.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="F11" s="56" t="s">
         <v>541</v>
       </c>
-      <c r="G11" s="15" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="F11" s="70" t="s">
+        <v>538</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
@@ -10032,7 +10302,7 @@
       <c r="F12" s="29"/>
       <c r="G12" s="31"/>
     </row>
-    <row r="13" spans="1:7" ht="31.2">
+    <row r="13" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -10049,13 +10319,13 @@
         <v>329</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>188</v>
       </c>
@@ -10070,13 +10340,13 @@
         <v>330</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>189</v>
       </c>
@@ -10090,12 +10360,12 @@
         <v>176</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F15" s="29"/>
       <c r="G15" s="31"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>379</v>
       </c>
@@ -10106,15 +10376,15 @@
         <v>114</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F16" s="29"/>
       <c r="G16" s="31"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>380</v>
       </c>
@@ -10126,12 +10396,12 @@
         <v>178</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="F17" s="29"/>
       <c r="G17" s="31"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>381</v>
       </c>
@@ -10143,12 +10413,12 @@
         <v>179</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="F18" s="29"/>
       <c r="G18" s="31"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>190</v>
       </c>
@@ -10159,15 +10429,15 @@
         <v>114</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F19" s="29"/>
       <c r="G19" s="31"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>191</v>
       </c>
@@ -10186,7 +10456,7 @@
       <c r="F20" s="29"/>
       <c r="G20" s="31"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>375</v>
       </c>
@@ -10198,12 +10468,12 @@
         <v>195</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="F21" s="29"/>
       <c r="G21" s="31"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>41</v>
       </c>
@@ -10219,80 +10489,107 @@
       <c r="E22" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F22" s="29"/>
-      <c r="G22" s="31"/>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="F22" s="29" t="s">
+        <v>410</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="F23" s="29" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G23" s="31" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-    </row>
-    <row r="25" spans="1:7">
+        <v>531</v>
+      </c>
+      <c r="F24" s="72" t="s">
+        <v>393</v>
+      </c>
+      <c r="G24" s="72" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-    </row>
-    <row r="26" spans="1:7">
+        <v>542</v>
+      </c>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+    </row>
+    <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
+        <v>545</v>
+      </c>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+    </row>
+    <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="69" t="s">
+        <v>756</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="C27" s="33"/>
+      <c r="D27" s="69" t="s">
+        <v>757</v>
+      </c>
+      <c r="E27" s="33"/>
+      <c r="F27" s="72" t="s">
+        <v>416</v>
+      </c>
+      <c r="G27" s="31" t="s">
+        <v>752</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -10306,461 +10603,445 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="65.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.69921875" customWidth="1"/>
-    <col min="7" max="7" width="17.09765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.69921875" customWidth="1"/>
+    <col min="1" max="1" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.75" customWidth="1"/>
+    <col min="7" max="7" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.6">
+    <row r="1" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="60" t="s">
         <v>105</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="63" t="s">
-        <v>588</v>
-      </c>
-      <c r="G1" s="63" t="s">
-        <v>589</v>
-      </c>
-      <c r="H1" s="66" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="F1" s="61" t="s">
+        <v>581</v>
+      </c>
+      <c r="G1" s="61" t="s">
+        <v>582</v>
+      </c>
+      <c r="H1" s="64" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
-        <v>639</v>
-      </c>
-      <c r="B2" s="46" t="s">
+        <v>619</v>
+      </c>
+      <c r="B2" s="44" t="s">
         <v>108</v>
       </c>
       <c r="C2" s="33"/>
       <c r="D2" s="33" t="s">
-        <v>640</v>
+        <v>620</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>640</v>
+        <v>620</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>641</v>
+        <v>762</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>639</v>
+        <v>421</v>
       </c>
       <c r="H2" s="33"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
-        <v>642</v>
-      </c>
-      <c r="B3" s="46" t="s">
+        <v>621</v>
+      </c>
+      <c r="B3" s="44" t="s">
         <v>108</v>
       </c>
       <c r="C3" s="33"/>
       <c r="D3" s="33" t="s">
-        <v>643</v>
+        <v>622</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>644</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>641</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>639</v>
-      </c>
+        <v>623</v>
+      </c>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
       <c r="H3" s="33"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
-        <v>594</v>
-      </c>
-      <c r="B4" s="46" t="s">
-        <v>595</v>
+        <v>584</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>585</v>
       </c>
       <c r="C4" s="33"/>
       <c r="D4" s="33" t="s">
-        <v>645</v>
+        <v>624</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>646</v>
+        <v>625</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>641</v>
+        <v>762</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>599</v>
+        <v>763</v>
       </c>
       <c r="H4" s="33"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
-        <v>600</v>
-      </c>
-      <c r="B5" s="46" t="s">
-        <v>595</v>
+        <v>588</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>585</v>
       </c>
       <c r="C5" s="33"/>
       <c r="D5" s="33" t="s">
-        <v>647</v>
+        <v>626</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>648</v>
+        <v>627</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>641</v>
+        <v>762</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>603</v>
+        <v>764</v>
       </c>
       <c r="H5" s="33"/>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="65" t="s">
-        <v>649</v>
-      </c>
-      <c r="B6" s="67" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="63" t="s">
+        <v>628</v>
+      </c>
+      <c r="B6" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65" t="s">
-        <v>650</v>
-      </c>
-      <c r="E6" s="65" t="s">
-        <v>650</v>
-      </c>
-      <c r="F6" s="65" t="s">
-        <v>641</v>
-      </c>
-      <c r="G6" s="65" t="s">
-        <v>649</v>
-      </c>
-      <c r="H6" s="65" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="65" t="s">
-        <v>652</v>
-      </c>
-      <c r="B7" s="67" t="s">
-        <v>595</v>
-      </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65" t="s">
-        <v>653</v>
-      </c>
-      <c r="E7" s="65" t="s">
-        <v>653</v>
-      </c>
-      <c r="F7" s="65" t="s">
-        <v>641</v>
-      </c>
-      <c r="G7" s="65" t="s">
-        <v>652</v>
-      </c>
-      <c r="H7" s="65" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="65" t="s">
-        <v>654</v>
-      </c>
-      <c r="B8" s="67" t="s">
-        <v>595</v>
-      </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65" t="s">
-        <v>655</v>
-      </c>
-      <c r="E8" s="65" t="s">
-        <v>655</v>
-      </c>
-      <c r="F8" s="65" t="s">
-        <v>641</v>
-      </c>
-      <c r="G8" s="65" t="s">
-        <v>654</v>
-      </c>
-      <c r="H8" s="65" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="65" t="s">
-        <v>656</v>
-      </c>
-      <c r="B9" s="67" t="s">
-        <v>595</v>
-      </c>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65" t="s">
-        <v>657</v>
-      </c>
-      <c r="E9" s="65" t="s">
-        <v>657</v>
-      </c>
-      <c r="F9" s="65" t="s">
-        <v>641</v>
-      </c>
-      <c r="G9" s="65" t="s">
-        <v>656</v>
-      </c>
-      <c r="H9" s="65" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="C6" s="63"/>
+      <c r="D6" s="63" t="s">
+        <v>629</v>
+      </c>
+      <c r="E6" s="63" t="s">
+        <v>629</v>
+      </c>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="74" t="s">
+        <v>631</v>
+      </c>
+      <c r="B7" s="75" t="s">
+        <v>585</v>
+      </c>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74" t="s">
+        <v>632</v>
+      </c>
+      <c r="E7" s="74" t="s">
+        <v>632</v>
+      </c>
+      <c r="F7" s="74" t="s">
+        <v>762</v>
+      </c>
+      <c r="G7" s="74" t="s">
+        <v>765</v>
+      </c>
+      <c r="H7" s="74" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="63" t="s">
+        <v>633</v>
+      </c>
+      <c r="B8" s="65" t="s">
+        <v>585</v>
+      </c>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63" t="s">
+        <v>634</v>
+      </c>
+      <c r="E8" s="63" t="s">
+        <v>634</v>
+      </c>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="63" t="s">
+        <v>635</v>
+      </c>
+      <c r="B9" s="65" t="s">
+        <v>585</v>
+      </c>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63" t="s">
+        <v>636</v>
+      </c>
+      <c r="E9" s="63" t="s">
+        <v>636</v>
+      </c>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="33" t="s">
-        <v>613</v>
-      </c>
-      <c r="B10" s="46" t="s">
+        <v>593</v>
+      </c>
+      <c r="B10" s="44" t="s">
         <v>260</v>
       </c>
       <c r="C10" s="33"/>
       <c r="D10" s="33" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="H10" s="33"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="33" t="s">
-        <v>615</v>
-      </c>
-      <c r="B11" s="64" t="s">
-        <v>492</v>
+        <v>595</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>489</v>
       </c>
       <c r="C11" s="33"/>
       <c r="D11" s="33" t="s">
-        <v>617</v>
+        <v>597</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>617</v>
+        <v>597</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="H11" s="33"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
-        <v>618</v>
-      </c>
-      <c r="B12" s="46" t="s">
-        <v>619</v>
+        <v>598</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>599</v>
       </c>
       <c r="C12" s="33"/>
       <c r="D12" s="33" t="s">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="H12" s="33"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
-        <v>621</v>
-      </c>
-      <c r="B13" s="46" t="s">
-        <v>619</v>
+        <v>601</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>599</v>
       </c>
       <c r="C13" s="33"/>
       <c r="D13" s="33" t="s">
-        <v>622</v>
+        <v>602</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>622</v>
+        <v>602</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>621</v>
+        <v>601</v>
       </c>
       <c r="H13" s="33"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="33" t="s">
-        <v>623</v>
-      </c>
-      <c r="B14" s="46" t="s">
-        <v>619</v>
+        <v>603</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>599</v>
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="33" t="s">
-        <v>624</v>
+        <v>604</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>624</v>
+        <v>604</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="H14" s="33"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="33" t="s">
-        <v>625</v>
-      </c>
-      <c r="B15" s="46" t="s">
-        <v>626</v>
+        <v>605</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>606</v>
       </c>
       <c r="C15" s="33"/>
       <c r="D15" s="33" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="H15" s="33"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
-        <v>628</v>
-      </c>
-      <c r="B16" s="46" t="s">
+        <v>608</v>
+      </c>
+      <c r="B16" s="44" t="s">
         <v>108</v>
       </c>
       <c r="C16" s="33"/>
       <c r="D16" s="33" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="G16" s="33" t="s">
-        <v>628</v>
+        <v>608</v>
       </c>
       <c r="H16" s="33"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="33" t="s">
-        <v>630</v>
-      </c>
-      <c r="B17" s="46" t="s">
-        <v>631</v>
+        <v>610</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>611</v>
       </c>
       <c r="C17" s="33"/>
       <c r="D17" s="33" t="s">
-        <v>632</v>
+        <v>612</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>632</v>
+        <v>612</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="H17" s="33"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
-        <v>633</v>
-      </c>
-      <c r="B18" s="46" t="s">
-        <v>631</v>
+        <v>613</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>611</v>
       </c>
       <c r="C18" s="33"/>
       <c r="D18" s="33" t="s">
-        <v>634</v>
+        <v>614</v>
       </c>
       <c r="E18" s="33" t="s">
-        <v>634</v>
+        <v>614</v>
       </c>
       <c r="F18" s="33" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="G18" s="33" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="H18" s="33"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="33" t="s">
-        <v>635</v>
-      </c>
-      <c r="B19" s="46" t="s">
-        <v>626</v>
+        <v>615</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>606</v>
       </c>
       <c r="C19" s="33"/>
       <c r="D19" s="33" t="s">
-        <v>636</v>
+        <v>616</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>636</v>
+        <v>616</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>635</v>
+        <v>615</v>
       </c>
       <c r="H19" s="33"/>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="65" t="s">
-        <v>658</v>
-      </c>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="63" t="s">
+        <v>637</v>
+      </c>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
